--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_31.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_31.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1820892.698920513</v>
+        <v>1906001.294268827</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13251674.51004885</v>
+        <v>11857191.11602537</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2065046.85755849</v>
+        <v>698313.6830760729</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6394796.490265202</v>
+        <v>6814710.443889678</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.64988064861473</v>
+        <v>125.1601604573898</v>
       </c>
       <c r="C2" t="n">
         <v>22.63172268683286</v>
@@ -668,7 +670,7 @@
         <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
-        <v>346.2148070994192</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
         <v>0.2956717864458369</v>
@@ -677,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +712,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>255.7713603095518</v>
@@ -725,7 +727,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -814,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>103.1498781034757</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>164.5944000087102</v>
@@ -835,7 +837,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,13 +867,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
         <v>278.8943527180514</v>
@@ -883,7 +885,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>7.648914268029116</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C5" t="n">
-        <v>22.63172268683286</v>
+        <v>341.8278835301728</v>
       </c>
       <c r="D5" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
         <v>21.71717045362101</v>
@@ -911,10 +913,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
-        <v>21.09292449517288</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="6">
@@ -1054,19 +1056,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>79.47996908723991</v>
       </c>
       <c r="H7" t="n">
         <v>142.3583058069271</v>
@@ -1105,16 +1107,16 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>204.7584329846325</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
         <v>240.1382575886529</v>
@@ -1130,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.64988064861473</v>
+        <v>263.0316841869443</v>
       </c>
       <c r="C8" t="n">
         <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
-        <v>363.97923960713</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
         <v>20.87293999249374</v>
@@ -1148,7 +1150,7 @@
         <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1193,10 +1195,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
         <v>401.2838973446586</v>
@@ -1288,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>161.683605144497</v>
@@ -1300,13 +1302,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
         <v>98.77088257712678</v>
@@ -1336,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
         <v>240.905954296359</v>
@@ -1351,13 +1353,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>19.09133096572004</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.0793406271554</v>
+        <v>66.82300722904147</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>274.9579016710563</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864459</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407056</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>34.54790254396354</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.3236211855918</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>214.0679051944722</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095519</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>353.9145207250131</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439303</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -1528,13 +1530,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>29.12610911481657</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1543,7 +1545,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>98.77088257712678</v>
@@ -1573,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>277.3826040146988</v>
@@ -1588,10 +1590,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>48.69532212579477</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
         <v>224.0793406271554</v>
@@ -1604,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486148</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>421.7171704536211</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924938</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>104.3307133061358</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>34.54790254396354</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1661,16 +1663,16 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095519</v>
+        <v>147.7993290726197</v>
       </c>
       <c r="V14" t="n">
-        <v>353.9145207250131</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439303</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -1762,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
@@ -1777,7 +1779,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>151.1370817482899</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
         <v>142.3583058069271</v>
@@ -1819,13 +1821,13 @@
         <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>192.8717243028904</v>
       </c>
       <c r="X16" t="n">
         <v>240.1382575886529</v>
@@ -1862,7 +1864,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2014,13 +2016,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>111.4895087206859</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1.276645200792784e-12</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>123.9086344760398</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
@@ -2084,7 +2086,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068506</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
         <v>421.717170453621</v>
@@ -2242,13 +2244,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2257,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>6.13287386842549</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>40.84698832683137</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
         <v>278.8943527180514</v>
@@ -2473,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
         <v>161.683605144497</v>
@@ -2488,13 +2490,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>11.12043047005107</v>
       </c>
       <c r="H25" t="n">
-        <v>96.18071693767337</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
         <v>278.8943527180514</v>
@@ -2561,7 +2563,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453622</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
         <v>420.8729399924937</v>
@@ -2722,10 +2724,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>98.15366458399268</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2761,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>172.7557593945127</v>
       </c>
       <c r="U28" t="n">
         <v>277.3826040146988</v>
@@ -2947,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
         <v>164.546123788675</v>
@@ -2962,13 +2964,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>209.2806853328878</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
         <v>278.8943527180514</v>
@@ -3013,10 +3015,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>89.44505231198379</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.7999661133377</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
         <v>278.8943527180514</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
@@ -3439,10 +3441,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>34.79033948628566</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
@@ -3487,10 +3489,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>106.0910900114347</v>
       </c>
     </row>
     <row r="38">
@@ -3706,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>218.7757544134943</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
@@ -3752,13 +3754,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>237.7694771643879</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
@@ -3806,7 +3808,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>293.3118661077283</v>
       </c>
     </row>
     <row r="42">
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
         <v>170.2528374898731</v>
@@ -3943,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>135.159417736922</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>125.4203831793925</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
@@ -3977,7 +3979,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>60.97825546679709</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
         <v>419.0596946068497</v>
@@ -3986,13 +3988,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>280.4903920320444</v>
       </c>
       <c r="W44" t="n">
         <v>392.4274362026566</v>
@@ -4138,19 +4140,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>98.77088257712678</v>
@@ -4180,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>110.4615265357259</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>104.4758017041531</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
@@ -4304,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>458.5578883150744</v>
+        <v>164.8266109787492</v>
       </c>
       <c r="C2" t="n">
-        <v>435.6975623687786</v>
+        <v>141.9662850324534</v>
       </c>
       <c r="D2" t="n">
-        <v>416.4453455941829</v>
+        <v>122.7140682578577</v>
       </c>
       <c r="E2" t="n">
-        <v>394.5088097824445</v>
+        <v>100.7775324461193</v>
       </c>
       <c r="F2" t="n">
-        <v>44.79688341939484</v>
+        <v>79.69375467592363</v>
       </c>
       <c r="G2" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H2" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I2" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J2" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K2" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L2" t="n">
-        <v>595.1637600336857</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M2" t="n">
-        <v>1145.829295018124</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N2" t="n">
-        <v>1556.689382596036</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="O2" t="n">
-        <v>2107.354917580474</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P2" t="n">
-        <v>2107.354917580474</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q2" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R2" t="n">
         <v>2224.911252462377</v>
@@ -4358,22 +4360,22 @@
         <v>2120.543958335517</v>
       </c>
       <c r="T2" t="n">
-        <v>1899.61838738015</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U2" t="n">
-        <v>1641.263477976562</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="V2" t="n">
-        <v>1283.774063102812</v>
+        <v>1504.699634058179</v>
       </c>
       <c r="W2" t="n">
-        <v>887.3827134031587</v>
+        <v>1108.308284358525</v>
       </c>
       <c r="X2" t="n">
-        <v>475.662714570906</v>
+        <v>696.5882855262728</v>
       </c>
       <c r="Y2" t="n">
-        <v>474.3658485662003</v>
+        <v>291.2510154811631</v>
       </c>
     </row>
     <row r="3">
@@ -4404,31 +4406,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I3" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J3" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K3" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L3" t="n">
-        <v>602.6104029955975</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M3" t="n">
-        <v>1153.275937980036</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="N3" t="n">
-        <v>1703.941472964474</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="O3" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P3" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q3" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R3" t="n">
         <v>1853.185855629757</v>
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1127.679347573484</v>
+        <v>354.551463246861</v>
       </c>
       <c r="C4" t="n">
-        <v>955.7067844524004</v>
+        <v>354.551463246861</v>
       </c>
       <c r="D4" t="n">
-        <v>792.3900115791711</v>
+        <v>354.551463246861</v>
       </c>
       <c r="E4" t="n">
-        <v>626.1818057320246</v>
+        <v>354.551463246861</v>
       </c>
       <c r="F4" t="n">
-        <v>454.3200315065851</v>
+        <v>354.551463246861</v>
       </c>
       <c r="G4" t="n">
-        <v>288.0630618008172</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H4" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I4" t="n">
         <v>44.49822504924753</v>
@@ -4513,25 +4515,25 @@
         <v>2177.87263914955</v>
       </c>
       <c r="S4" t="n">
-        <v>2177.87263914955</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="T4" t="n">
-        <v>1934.53329137545</v>
+        <v>1764.398243894585</v>
       </c>
       <c r="U4" t="n">
-        <v>1934.53329137545</v>
+        <v>1484.213795394889</v>
       </c>
       <c r="V4" t="n">
-        <v>1652.821823983478</v>
+        <v>1202.502328002918</v>
       </c>
       <c r="W4" t="n">
-        <v>1377.969420155991</v>
+        <v>927.6499241754307</v>
       </c>
       <c r="X4" t="n">
-        <v>1135.405523601797</v>
+        <v>685.0860276212358</v>
       </c>
       <c r="Y4" t="n">
-        <v>1127.679347573484</v>
+        <v>458.7432593109778</v>
       </c>
     </row>
     <row r="5">
@@ -4541,49 +4543,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>555.276128101183</v>
+        <v>1295.32778354778</v>
       </c>
       <c r="C5" t="n">
-        <v>532.4158021548872</v>
+        <v>950.0470931132616</v>
       </c>
       <c r="D5" t="n">
-        <v>513.1635853802915</v>
+        <v>526.7544722982618</v>
       </c>
       <c r="E5" t="n">
-        <v>491.2270495685531</v>
+        <v>504.8179364865234</v>
       </c>
       <c r="F5" t="n">
-        <v>470.1432717983574</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="G5" t="n">
-        <v>65.804209387806</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H5" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I5" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>116.829168004879</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
-        <v>116.829168004879</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L5" t="n">
-        <v>667.4947029893171</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="M5" t="n">
-        <v>1218.160237973755</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="N5" t="n">
-        <v>1768.825772958194</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="O5" t="n">
-        <v>1768.825772958194</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P5" t="n">
-        <v>1768.825772958194</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q5" t="n">
         <v>2224.911252462377</v>
@@ -4592,25 +4594,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>2003.98568150701</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U5" t="n">
-        <v>1745.630772103422</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V5" t="n">
-        <v>1388.141357229671</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="W5" t="n">
-        <v>1388.141357229671</v>
+        <v>1724.152608635864</v>
       </c>
       <c r="X5" t="n">
-        <v>1380.461762437823</v>
+        <v>1312.432609803611</v>
       </c>
       <c r="Y5" t="n">
-        <v>975.124492392713</v>
+        <v>1311.135743798905</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4646,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>316.1957143288386</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K6" t="n">
-        <v>316.1957143288386</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L6" t="n">
-        <v>866.8612493132769</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M6" t="n">
-        <v>866.8612493132769</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N6" t="n">
-        <v>1302.520320645319</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="O6" t="n">
-        <v>1853.185855629757</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="P6" t="n">
-        <v>1853.185855629757</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q6" t="n">
         <v>1853.185855629757</v>
@@ -4699,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>861.6538096079925</v>
+        <v>268.5772905989112</v>
       </c>
       <c r="C7" t="n">
-        <v>689.6812464869084</v>
+        <v>268.5772905989112</v>
       </c>
       <c r="D7" t="n">
-        <v>526.3644736136791</v>
+        <v>268.5772905989112</v>
       </c>
       <c r="E7" t="n">
-        <v>360.1562677665327</v>
+        <v>268.5772905989112</v>
       </c>
       <c r="F7" t="n">
-        <v>188.2944935410931</v>
+        <v>268.5772905989112</v>
       </c>
       <c r="G7" t="n">
         <v>188.2944935410931</v>
@@ -4753,22 +4755,22 @@
         <v>2007.737591668684</v>
       </c>
       <c r="T7" t="n">
-        <v>2007.737591668684</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U7" t="n">
-        <v>1727.553143168988</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V7" t="n">
-        <v>1727.553143168988</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W7" t="n">
-        <v>1520.726443184511</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X7" t="n">
-        <v>1278.162546630316</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="Y7" t="n">
-        <v>1051.819778320058</v>
+        <v>458.7432593109769</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1180.242103096954</v>
+        <v>129.9297397222204</v>
       </c>
       <c r="C8" t="n">
-        <v>1157.381777150658</v>
+        <v>107.0694137759246</v>
       </c>
       <c r="D8" t="n">
-        <v>789.7259795676982</v>
+        <v>87.81719700132894</v>
       </c>
       <c r="E8" t="n">
-        <v>363.7490397155557</v>
+        <v>65.88066118959054</v>
       </c>
       <c r="F8" t="n">
-        <v>342.66526194536</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G8" t="n">
-        <v>342.3666035752127</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H8" t="n">
         <v>44.49822504924753</v>
@@ -4802,28 +4804,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>667.4947029893171</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L8" t="n">
-        <v>667.4947029893171</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M8" t="n">
-        <v>1218.160237973755</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="N8" t="n">
-        <v>1768.825772958194</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="O8" t="n">
-        <v>1768.825772958194</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="P8" t="n">
-        <v>1768.825772958194</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q8" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R8" t="n">
         <v>2224.911252462377</v>
@@ -4841,13 +4843,13 @@
         <v>1609.066928185038</v>
       </c>
       <c r="W8" t="n">
-        <v>1609.066928185038</v>
+        <v>1212.675578485385</v>
       </c>
       <c r="X8" t="n">
-        <v>1601.387333393189</v>
+        <v>800.9555796531324</v>
       </c>
       <c r="Y8" t="n">
-        <v>1196.05006334808</v>
+        <v>395.6183096080227</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4883,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>44.49822504924753</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K9" t="n">
-        <v>595.1637600336857</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="L9" t="n">
-        <v>751.8547856608809</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="M9" t="n">
-        <v>1302.520320645319</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="N9" t="n">
-        <v>1853.185855629757</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="O9" t="n">
-        <v>1853.185855629757</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="P9" t="n">
-        <v>1853.185855629757</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q9" t="n">
         <v>1853.185855629757</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>983.8830790816394</v>
+        <v>617.588040521193</v>
       </c>
       <c r="C10" t="n">
-        <v>811.9105159605554</v>
+        <v>617.588040521193</v>
       </c>
       <c r="D10" t="n">
-        <v>648.5937430873261</v>
+        <v>454.2712676479637</v>
       </c>
       <c r="E10" t="n">
-        <v>482.3855372401796</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="F10" t="n">
-        <v>310.52376301474</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="G10" t="n">
-        <v>144.2667933089722</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H10" t="n">
-        <v>144.2667933089722</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
-        <v>44.49822504924814</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J10" t="n">
-        <v>101.9895532734062</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K10" t="n">
-        <v>328.5171544792433</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L10" t="n">
-        <v>683.2064757736641</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M10" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N10" t="n">
-        <v>1451.883781619951</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O10" t="n">
-        <v>1807.311910299714</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P10" t="n">
-        <v>2097.911122221615</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q10" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2224.911252462377</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>2224.911252462377</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T10" t="n">
-        <v>1981.571904688276</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U10" t="n">
-        <v>1701.387456188581</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V10" t="n">
-        <v>1419.67598879661</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W10" t="n">
-        <v>1419.67598879661</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X10" t="n">
-        <v>1400.391816103963</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="Y10" t="n">
-        <v>1174.049047793705</v>
+        <v>617.588040521193</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1079.521716903026</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C11" t="n">
-        <v>1079.521716903026</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D11" t="n">
-        <v>801.7864626898377</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E11" t="n">
-        <v>801.7864626898377</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F11" t="n">
-        <v>801.7864626898377</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G11" t="n">
-        <v>397.4474002792862</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H11" t="n">
-        <v>99.57902175332097</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I11" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J11" t="n">
-        <v>427.2856093136876</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K11" t="n">
-        <v>1142.793917289187</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L11" t="n">
-        <v>1943.23552968699</v>
+        <v>1029.701992498267</v>
       </c>
       <c r="M11" t="n">
-        <v>1943.23552968699</v>
+        <v>2033.988093917325</v>
       </c>
       <c r="N11" t="n">
-        <v>1943.23552968699</v>
+        <v>3010.239152404026</v>
       </c>
       <c r="O11" t="n">
-        <v>2743.677142084793</v>
+        <v>3855.383802554838</v>
       </c>
       <c r="P11" t="n">
-        <v>3116.551189957705</v>
+        <v>4563.663081712765</v>
       </c>
       <c r="Q11" t="n">
-        <v>3116.551189957705</v>
+        <v>5003.847243949505</v>
       </c>
       <c r="R11" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949505</v>
       </c>
       <c r="S11" t="n">
-        <v>3129.740230712747</v>
+        <v>5003.847243949505</v>
       </c>
       <c r="T11" t="n">
-        <v>2908.81465975738</v>
+        <v>4787.617036682362</v>
       </c>
       <c r="U11" t="n">
-        <v>2650.459750353793</v>
+        <v>4529.262127278774</v>
       </c>
       <c r="V11" t="n">
-        <v>2292.970335480042</v>
+        <v>4171.772712405023</v>
       </c>
       <c r="W11" t="n">
-        <v>1896.578985780389</v>
+        <v>3775.38136270537</v>
       </c>
       <c r="X11" t="n">
-        <v>1484.858986948136</v>
+        <v>3363.661363873117</v>
       </c>
       <c r="Y11" t="n">
-        <v>1079.521716903026</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>631.8056415282474</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C12" t="n">
-        <v>514.2997380457522</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D12" t="n">
-        <v>410.4597795610372</v>
+        <v>445.8545739432352</v>
       </c>
       <c r="E12" t="n">
-        <v>305.7578458339744</v>
+        <v>341.1526402161724</v>
       </c>
       <c r="F12" t="n">
-        <v>212.1120155168786</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G12" t="n">
-        <v>118.0582437344826</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H12" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I12" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J12" t="n">
-        <v>336.3796397763832</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K12" t="n">
-        <v>336.3796397763832</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L12" t="n">
-        <v>336.3796397763832</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="M12" t="n">
-        <v>1136.821252174186</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="N12" t="n">
-        <v>1409.224304214523</v>
+        <v>555.1378205852488</v>
       </c>
       <c r="O12" t="n">
-        <v>1409.224304214523</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="P12" t="n">
-        <v>1409.224304214523</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="Q12" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R12" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S12" t="n">
-        <v>1792.045533638556</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T12" t="n">
-        <v>1650.165597936235</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U12" t="n">
-        <v>1465.397401855871</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V12" t="n">
-        <v>1260.424262995137</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W12" t="n">
-        <v>1063.902885828355</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X12" t="n">
-        <v>900.4255395950178</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y12" t="n">
-        <v>760.7326509483102</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>804.0289356745054</v>
+        <v>567.4953582027545</v>
       </c>
       <c r="C13" t="n">
-        <v>804.0289356745054</v>
+        <v>395.5227950816704</v>
       </c>
       <c r="D13" t="n">
-        <v>640.7121628012761</v>
+        <v>366.102482844482</v>
       </c>
       <c r="E13" t="n">
-        <v>474.5039569541296</v>
+        <v>366.102482844482</v>
       </c>
       <c r="F13" t="n">
-        <v>474.5039569541296</v>
+        <v>366.102482844482</v>
       </c>
       <c r="G13" t="n">
-        <v>308.2469872483618</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="H13" t="n">
-        <v>164.4507187565162</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I13" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J13" t="n">
-        <v>122.1734787209502</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K13" t="n">
-        <v>348.7010799267873</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L13" t="n">
-        <v>703.3904012212081</v>
+        <v>738.7851956034061</v>
       </c>
       <c r="M13" t="n">
-        <v>1094.576196191459</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N13" t="n">
-        <v>1472.067707067495</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O13" t="n">
-        <v>1827.495835747258</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P13" t="n">
-        <v>2118.095047669159</v>
+        <v>2153.489842051357</v>
       </c>
       <c r="Q13" t="n">
-        <v>2245.09517790992</v>
+        <v>2280.489972292119</v>
       </c>
       <c r="R13" t="n">
-        <v>2245.09517790992</v>
+        <v>2233.451358979292</v>
       </c>
       <c r="S13" t="n">
-        <v>2074.960130429055</v>
+        <v>2063.316311498427</v>
       </c>
       <c r="T13" t="n">
-        <v>1831.620782654955</v>
+        <v>2063.316311498427</v>
       </c>
       <c r="U13" t="n">
-        <v>1551.43633415526</v>
+        <v>1783.131862998731</v>
       </c>
       <c r="V13" t="n">
-        <v>1269.724866763288</v>
+        <v>1501.42039560676</v>
       </c>
       <c r="W13" t="n">
-        <v>1269.724866763288</v>
+        <v>1226.567991779273</v>
       </c>
       <c r="X13" t="n">
-        <v>1220.537672696829</v>
+        <v>984.004095225078</v>
       </c>
       <c r="Y13" t="n">
-        <v>994.1949043865711</v>
+        <v>757.6613269148201</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1056.06470231115</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C14" t="n">
-        <v>1056.06470231115</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D14" t="n">
-        <v>1056.06470231115</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E14" t="n">
-        <v>630.0877624590075</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F14" t="n">
-        <v>204.9635806484077</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G14" t="n">
-        <v>204.9635806484077</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H14" t="n">
-        <v>99.57902175332099</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I14" t="n">
-        <v>64.68215049679216</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J14" t="n">
-        <v>64.68215049679216</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K14" t="n">
-        <v>64.68215049679216</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L14" t="n">
-        <v>64.68215049679216</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M14" t="n">
-        <v>351.3032064999881</v>
+        <v>3112.09986070972</v>
       </c>
       <c r="N14" t="n">
-        <v>1151.744818897791</v>
+        <v>4088.350919196421</v>
       </c>
       <c r="O14" t="n">
-        <v>1952.186431295594</v>
+        <v>4933.495569347233</v>
       </c>
       <c r="P14" t="n">
-        <v>2660.465710453522</v>
+        <v>4933.495569347233</v>
       </c>
       <c r="Q14" t="n">
-        <v>3116.551189957705</v>
+        <v>4933.495569347233</v>
       </c>
       <c r="R14" t="n">
-        <v>3234.107524839608</v>
+        <v>5003.847243949505</v>
       </c>
       <c r="S14" t="n">
-        <v>3129.740230712748</v>
+        <v>4899.479949822646</v>
       </c>
       <c r="T14" t="n">
-        <v>2908.814659757381</v>
+        <v>4678.554378867279</v>
       </c>
       <c r="U14" t="n">
-        <v>2650.459750353793</v>
+        <v>4529.262127278774</v>
       </c>
       <c r="V14" t="n">
-        <v>2292.970335480043</v>
+        <v>4171.772712405023</v>
       </c>
       <c r="W14" t="n">
-        <v>2292.970335480043</v>
+        <v>3775.38136270537</v>
       </c>
       <c r="X14" t="n">
-        <v>1881.25033664779</v>
+        <v>3363.661363873117</v>
       </c>
       <c r="Y14" t="n">
-        <v>1475.91306660268</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>631.8056415282474</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C15" t="n">
-        <v>514.2997380457522</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D15" t="n">
-        <v>410.4597795610372</v>
+        <v>445.8545739432352</v>
       </c>
       <c r="E15" t="n">
-        <v>305.7578458339744</v>
+        <v>341.1526402161724</v>
       </c>
       <c r="F15" t="n">
-        <v>212.1120155168786</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G15" t="n">
-        <v>118.0582437344826</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H15" t="n">
-        <v>64.68215049679216</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I15" t="n">
-        <v>64.68215049679216</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J15" t="n">
-        <v>336.3796397763832</v>
+        <v>371.7744341585812</v>
       </c>
       <c r="K15" t="n">
-        <v>336.3796397763832</v>
+        <v>371.7744341585812</v>
       </c>
       <c r="L15" t="n">
-        <v>336.3796397763832</v>
+        <v>371.7744341585812</v>
       </c>
       <c r="M15" t="n">
-        <v>336.3796397763832</v>
+        <v>737.4303189019267</v>
       </c>
       <c r="N15" t="n">
-        <v>1072.928168679499</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="O15" t="n">
-        <v>1873.369781077302</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="P15" t="n">
-        <v>1873.369781077302</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="Q15" t="n">
-        <v>1873.369781077302</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="R15" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S15" t="n">
-        <v>1792.045533638556</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T15" t="n">
-        <v>1650.165597936235</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U15" t="n">
-        <v>1465.397401855871</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V15" t="n">
-        <v>1260.424262995137</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W15" t="n">
-        <v>1063.902885828355</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X15" t="n">
-        <v>900.4255395950178</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y15" t="n">
-        <v>760.7326509483102</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>970.9532493796985</v>
+        <v>1183.258067403227</v>
       </c>
       <c r="C16" t="n">
-        <v>798.9806862586145</v>
+        <v>1011.285504282143</v>
       </c>
       <c r="D16" t="n">
-        <v>798.9806862586145</v>
+        <v>847.9687314089136</v>
       </c>
       <c r="E16" t="n">
-        <v>632.772480411468</v>
+        <v>681.7605255617672</v>
       </c>
       <c r="F16" t="n">
-        <v>460.9107061860284</v>
+        <v>509.8987513363276</v>
       </c>
       <c r="G16" t="n">
-        <v>308.2469872483618</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="H16" t="n">
-        <v>164.4507187565162</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I16" t="n">
-        <v>64.68215049679216</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J16" t="n">
-        <v>122.1734787209502</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K16" t="n">
-        <v>348.7010799267874</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L16" t="n">
-        <v>703.3904012212081</v>
+        <v>738.7851956034061</v>
       </c>
       <c r="M16" t="n">
-        <v>1094.576196191457</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N16" t="n">
-        <v>1472.067707067492</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O16" t="n">
-        <v>1827.495835747256</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P16" t="n">
-        <v>2118.095047669156</v>
+        <v>2153.489842051357</v>
       </c>
       <c r="Q16" t="n">
-        <v>2245.095177909918</v>
+        <v>2280.489972292119</v>
       </c>
       <c r="R16" t="n">
-        <v>2245.095177909918</v>
+        <v>2280.489972292119</v>
       </c>
       <c r="S16" t="n">
-        <v>2245.095177909918</v>
+        <v>2280.489972292119</v>
       </c>
       <c r="T16" t="n">
-        <v>2001.755830135818</v>
+        <v>2037.150624518019</v>
       </c>
       <c r="U16" t="n">
-        <v>1721.571381636122</v>
+        <v>2037.150624518019</v>
       </c>
       <c r="V16" t="n">
-        <v>1439.859914244151</v>
+        <v>2037.150624518019</v>
       </c>
       <c r="W16" t="n">
-        <v>1439.859914244151</v>
+        <v>1842.330700979745</v>
       </c>
       <c r="X16" t="n">
-        <v>1197.296017689956</v>
+        <v>1599.766804425551</v>
       </c>
       <c r="Y16" t="n">
-        <v>970.9532493796985</v>
+        <v>1373.424036115293</v>
       </c>
     </row>
     <row r="17">
@@ -5489,31 +5491,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K17" t="n">
         <v>1180.414480198223</v>
@@ -5522,43 +5524,43 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2837.654482149731</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N17" t="n">
-        <v>3813.905540636432</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O17" t="n">
-        <v>4659.050190787244</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P17" t="n">
-        <v>4659.050190787244</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="Q17" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164566</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U17" t="n">
-        <v>4531.487895805612</v>
+        <v>4531.487895805611</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.99848093186</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232207</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="18">
@@ -5583,7 +5585,7 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G18" t="n">
-        <v>155.678806643519</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H18" t="n">
         <v>102.3027134058285</v>
@@ -5601,10 +5603,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M18" t="n">
-        <v>1158.289251381874</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N18" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O18" t="n">
         <v>1910.990343986338</v>
@@ -5647,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>888.2776948471594</v>
+        <v>941.9189991784957</v>
       </c>
       <c r="C19" t="n">
-        <v>716.3051317260754</v>
+        <v>769.9464360574117</v>
       </c>
       <c r="D19" t="n">
-        <v>552.9883588528461</v>
+        <v>606.6296631841824</v>
       </c>
       <c r="E19" t="n">
-        <v>386.7801530056996</v>
+        <v>440.4214573370359</v>
       </c>
       <c r="F19" t="n">
-        <v>214.91837878026</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G19" t="n">
-        <v>214.91837878026</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>102.3027134058298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5695,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2065.542080025265</v>
+        <v>2157.555503974472</v>
       </c>
       <c r="T19" t="n">
-        <v>1822.202732251165</v>
+        <v>2157.555503974472</v>
       </c>
       <c r="U19" t="n">
-        <v>1822.202732251165</v>
+        <v>2157.555503974472</v>
       </c>
       <c r="V19" t="n">
-        <v>1822.202732251165</v>
+        <v>1875.844036582501</v>
       </c>
       <c r="W19" t="n">
-        <v>1547.350328423678</v>
+        <v>1600.991632755014</v>
       </c>
       <c r="X19" t="n">
-        <v>1304.786431869483</v>
+        <v>1358.427736200819</v>
       </c>
       <c r="Y19" t="n">
-        <v>1078.443663559225</v>
+        <v>1132.084967890561</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D20" t="n">
         <v>1690.508147261616</v>
@@ -5738,37 +5740,37 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K20" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L20" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M20" t="n">
-        <v>2129.375202991803</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N20" t="n">
-        <v>3105.626261478504</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O20" t="n">
-        <v>3950.770911629316</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P20" t="n">
-        <v>4659.050190787244</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q20" t="n">
         <v>5115.135670291427</v>
@@ -5786,16 +5788,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="21">
@@ -5838,10 +5840,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M21" t="n">
-        <v>102.3027134058285</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N21" t="n">
-        <v>1021.509065974867</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O21" t="n">
         <v>1910.990343986338</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>612.3452565994986</v>
+        <v>537.3606176598659</v>
       </c>
       <c r="C22" t="n">
-        <v>440.3726934784146</v>
+        <v>365.3880545387819</v>
       </c>
       <c r="D22" t="n">
-        <v>440.3726934784146</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="E22" t="n">
-        <v>274.1644876312681</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="F22" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="G22" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H22" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
@@ -5935,25 +5937,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2112.580693338092</v>
+        <v>2276.520918729638</v>
       </c>
       <c r="T22" t="n">
-        <v>1869.241345563992</v>
+        <v>2033.181570955538</v>
       </c>
       <c r="U22" t="n">
-        <v>1827.981761395475</v>
+        <v>1752.997122455842</v>
       </c>
       <c r="V22" t="n">
-        <v>1546.270294003504</v>
+        <v>1471.285655063871</v>
       </c>
       <c r="W22" t="n">
-        <v>1271.417890176017</v>
+        <v>1196.433251236384</v>
       </c>
       <c r="X22" t="n">
-        <v>1028.853993621822</v>
+        <v>953.8693546821894</v>
       </c>
       <c r="Y22" t="n">
-        <v>802.5112253115642</v>
+        <v>727.5265863719314</v>
       </c>
     </row>
     <row r="23">
@@ -6075,7 +6077,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M24" t="n">
-        <v>821.6753975134684</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N24" t="n">
         <v>1910.990343986338</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>966.867243648119</v>
+        <v>3619.314716995755</v>
       </c>
       <c r="C25" t="n">
-        <v>966.867243648119</v>
+        <v>3447.342153874671</v>
       </c>
       <c r="D25" t="n">
-        <v>803.5504707748897</v>
+        <v>3284.025381001441</v>
       </c>
       <c r="E25" t="n">
-        <v>637.3422649277433</v>
+        <v>3117.817175154295</v>
       </c>
       <c r="F25" t="n">
-        <v>465.4804907023037</v>
+        <v>2945.955400928855</v>
       </c>
       <c r="G25" t="n">
-        <v>299.2235209965358</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="H25" t="n">
-        <v>202.0712816655526</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="I25" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J25" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K25" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L25" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M25" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N25" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O25" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P25" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q25" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R25" t="n">
-        <v>2235.67712750613</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S25" t="n">
-        <v>2235.67712750613</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="T25" t="n">
-        <v>1992.33777973203</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="U25" t="n">
-        <v>1992.33777973203</v>
+        <v>4834.951221791732</v>
       </c>
       <c r="V25" t="n">
-        <v>1710.626312340059</v>
+        <v>4553.23975439976</v>
       </c>
       <c r="W25" t="n">
-        <v>1435.773908512572</v>
+        <v>4278.387350572273</v>
       </c>
       <c r="X25" t="n">
-        <v>1193.210011958377</v>
+        <v>4035.823454018078</v>
       </c>
       <c r="Y25" t="n">
-        <v>966.867243648119</v>
+        <v>3809.48068570782</v>
       </c>
     </row>
     <row r="26">
@@ -6200,52 +6202,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D26" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E26" t="n">
         <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K26" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L26" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M26" t="n">
-        <v>2110.0395278175</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N26" t="n">
-        <v>3086.290586304201</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O26" t="n">
-        <v>3833.214576747414</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P26" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q26" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6260,16 +6262,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V26" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W26" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X26" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y26" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="27">
@@ -6358,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>373.4203922683193</v>
+        <v>612.3940204581201</v>
       </c>
       <c r="C28" t="n">
-        <v>201.4478291472353</v>
+        <v>440.421457337036</v>
       </c>
       <c r="D28" t="n">
-        <v>201.4478291472353</v>
+        <v>440.421457337036</v>
       </c>
       <c r="E28" t="n">
-        <v>201.4478291472353</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F28" t="n">
-        <v>102.3027134058285</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G28" t="n">
         <v>102.3027134058285</v>
@@ -6409,25 +6411,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2112.580693338092</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T28" t="n">
-        <v>1869.241345563992</v>
+        <v>2108.214973753792</v>
       </c>
       <c r="U28" t="n">
-        <v>1589.056897064296</v>
+        <v>1828.030525254097</v>
       </c>
       <c r="V28" t="n">
-        <v>1307.345429672325</v>
+        <v>1546.319057862125</v>
       </c>
       <c r="W28" t="n">
-        <v>1032.493025844838</v>
+        <v>1271.466654034638</v>
       </c>
       <c r="X28" t="n">
-        <v>789.9291292906429</v>
+        <v>1028.902757480444</v>
       </c>
       <c r="Y28" t="n">
-        <v>563.5863609803849</v>
+        <v>802.5599891701856</v>
       </c>
     </row>
     <row r="29">
@@ -6549,7 +6551,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>1158.289251381874</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N30" t="n">
         <v>1910.990343986338</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>612.3452565994986</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C31" t="n">
-        <v>440.3726934784146</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D31" t="n">
-        <v>440.3726934784146</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E31" t="n">
-        <v>274.1644876312681</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F31" t="n">
-        <v>102.3027134058285</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G31" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H31" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
@@ -6646,25 +6648,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T31" t="n">
-        <v>2039.376393044857</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="U31" t="n">
-        <v>1827.981761395475</v>
+        <v>1832.396244838396</v>
       </c>
       <c r="V31" t="n">
-        <v>1546.270294003504</v>
+        <v>1550.684777446425</v>
       </c>
       <c r="W31" t="n">
-        <v>1271.417890176017</v>
+        <v>1275.832373618938</v>
       </c>
       <c r="X31" t="n">
-        <v>1028.853993621822</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="Y31" t="n">
-        <v>802.5112253115642</v>
+        <v>1185.483835930065</v>
       </c>
     </row>
     <row r="32">
@@ -6704,22 +6706,22 @@
         <v>817.8110213813276</v>
       </c>
       <c r="L32" t="n">
-        <v>1581.174581076928</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M32" t="n">
-        <v>2585.460682495986</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N32" t="n">
-        <v>3561.711740982687</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O32" t="n">
-        <v>4406.8563911335</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P32" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6777,19 +6779,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J33" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K33" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L33" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M33" t="n">
-        <v>821.6753975134684</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N33" t="n">
-        <v>1910.990343986338</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="O33" t="n">
         <v>1910.990343986338</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>843.7708094800807</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>671.7982463589967</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>508.4814734857674</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>342.273267638621</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
-        <v>342.273267638621</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>342.273267638621</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
@@ -6883,25 +6885,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2112.580693338092</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T34" t="n">
-        <v>1869.241345563992</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U34" t="n">
-        <v>1869.241345563992</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V34" t="n">
-        <v>1587.529878172021</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W34" t="n">
-        <v>1312.677474344533</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X34" t="n">
-        <v>1070.113577790339</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y34" t="n">
-        <v>843.7708094800807</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="35">
@@ -6938,19 +6940,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K35" t="n">
-        <v>817.8110213813276</v>
+        <v>651.5495334576516</v>
       </c>
       <c r="L35" t="n">
-        <v>1747.436069000604</v>
+        <v>1581.174581076928</v>
       </c>
       <c r="M35" t="n">
-        <v>2751.722170419663</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N35" t="n">
-        <v>3727.973228906364</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O35" t="n">
-        <v>4573.117879057176</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P35" t="n">
         <v>5115.135670291427</v>
@@ -7026,7 +7028,7 @@
         <v>1158.289251381874</v>
       </c>
       <c r="N36" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O36" t="n">
         <v>1910.990343986338</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>941.9189991784958</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C37" t="n">
-        <v>769.9464360574118</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D37" t="n">
-        <v>606.6296631841825</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E37" t="n">
-        <v>440.421457337036</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F37" t="n">
-        <v>268.5596831115964</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G37" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H37" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
@@ -7120,25 +7122,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2247.573983762103</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T37" t="n">
-        <v>2247.573983762103</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U37" t="n">
-        <v>1967.389535262407</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="V37" t="n">
-        <v>1685.678067870436</v>
+        <v>1757.664925652886</v>
       </c>
       <c r="W37" t="n">
-        <v>1410.825664042949</v>
+        <v>1482.812521825399</v>
       </c>
       <c r="X37" t="n">
-        <v>1168.261767488754</v>
+        <v>1482.812521825399</v>
       </c>
       <c r="Y37" t="n">
-        <v>941.9189991784958</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="38">
@@ -7157,16 +7159,16 @@
         <v>1690.508147261616</v>
       </c>
       <c r="E38" t="n">
-        <v>1264.531207409473</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
         <v>839.4070255988736</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
@@ -7190,19 +7192,19 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P38" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
@@ -7248,31 +7250,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J39" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K39" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L39" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M39" t="n">
-        <v>1165.735894343786</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="N39" t="n">
-        <v>1828.971033901635</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O39" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P39" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q39" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7309,16 +7311,16 @@
         <v>1185.483835930065</v>
       </c>
       <c r="C40" t="n">
-        <v>1013.511272808981</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D40" t="n">
-        <v>850.1944999357521</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E40" t="n">
-        <v>683.9862940886056</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F40" t="n">
-        <v>512.124519863166</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G40" t="n">
         <v>345.8675501573982</v>
@@ -7330,10 +7332,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7354,19 +7356,19 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T40" t="n">
-        <v>1844.556469506584</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U40" t="n">
-        <v>1844.556469506584</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V40" t="n">
-        <v>1844.556469506584</v>
+        <v>2119.408873334071</v>
       </c>
       <c r="W40" t="n">
         <v>1844.556469506584</v>
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1765.976622961234</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C41" t="n">
-        <v>1339.075892974534</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D41" t="n">
-        <v>915.7832721595344</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E41" t="n">
-        <v>489.8063323073919</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F41" t="n">
-        <v>64.68215049679213</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G41" t="n">
-        <v>64.68215049679213</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H41" t="n">
-        <v>64.68215049679213</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I41" t="n">
-        <v>64.68215049679213</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J41" t="n">
-        <v>64.68215049679213</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K41" t="n">
-        <v>780.1904584722912</v>
+        <v>815.5852528544892</v>
       </c>
       <c r="L41" t="n">
-        <v>780.1904584722912</v>
+        <v>1745.210300473766</v>
       </c>
       <c r="M41" t="n">
-        <v>1580.632070870094</v>
+        <v>1900.530441767981</v>
       </c>
       <c r="N41" t="n">
-        <v>2381.073683267897</v>
+        <v>2876.781500254682</v>
       </c>
       <c r="O41" t="n">
-        <v>2381.073683267897</v>
+        <v>3721.926150405494</v>
       </c>
       <c r="P41" t="n">
-        <v>2778.022045335424</v>
+        <v>4430.205429563422</v>
       </c>
       <c r="Q41" t="n">
-        <v>3234.107524839607</v>
+        <v>4886.290909067605</v>
       </c>
       <c r="R41" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949507</v>
       </c>
       <c r="S41" t="n">
-        <v>3234.107524839607</v>
+        <v>4899.479949822648</v>
       </c>
       <c r="T41" t="n">
-        <v>3234.107524839607</v>
+        <v>4678.55437886728</v>
       </c>
       <c r="U41" t="n">
-        <v>3234.107524839607</v>
+        <v>4420.199469463692</v>
       </c>
       <c r="V41" t="n">
-        <v>2993.93633578467</v>
+        <v>4062.710054589942</v>
       </c>
       <c r="W41" t="n">
-        <v>2597.544986085017</v>
+        <v>3666.318704890289</v>
       </c>
       <c r="X41" t="n">
-        <v>2185.824987252764</v>
+        <v>3254.598706058036</v>
       </c>
       <c r="Y41" t="n">
-        <v>2185.824987252764</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>631.8056415282474</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C42" t="n">
-        <v>514.2997380457522</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D42" t="n">
-        <v>410.4597795610372</v>
+        <v>445.8545739432352</v>
       </c>
       <c r="E42" t="n">
-        <v>305.7578458339744</v>
+        <v>341.1526402161724</v>
       </c>
       <c r="F42" t="n">
-        <v>212.1120155168786</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G42" t="n">
-        <v>118.0582437344825</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H42" t="n">
-        <v>64.68215049679213</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I42" t="n">
-        <v>64.68215049679213</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J42" t="n">
-        <v>64.68215049679213</v>
+        <v>371.7744341585812</v>
       </c>
       <c r="K42" t="n">
-        <v>655.1670770651317</v>
+        <v>962.2593607269208</v>
       </c>
       <c r="L42" t="n">
-        <v>655.1670770651317</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="M42" t="n">
-        <v>655.1670770651317</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="N42" t="n">
-        <v>1455.608689462934</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="O42" t="n">
-        <v>1455.608689462934</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="P42" t="n">
-        <v>1873.369781077302</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="Q42" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R42" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S42" t="n">
-        <v>1792.045533638556</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T42" t="n">
-        <v>1650.165597936235</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U42" t="n">
-        <v>1465.397401855871</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V42" t="n">
-        <v>1260.424262995137</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W42" t="n">
-        <v>1063.902885828355</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X42" t="n">
-        <v>900.4255395950178</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y42" t="n">
-        <v>760.7326509483102</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>904.2984362694593</v>
+        <v>939.6932306516574</v>
       </c>
       <c r="C43" t="n">
-        <v>732.3258731483753</v>
+        <v>767.7206675305733</v>
       </c>
       <c r="D43" t="n">
-        <v>569.009100275146</v>
+        <v>604.403894657344</v>
       </c>
       <c r="E43" t="n">
-        <v>402.8008944279995</v>
+        <v>438.1956888101976</v>
       </c>
       <c r="F43" t="n">
-        <v>230.93912020256</v>
+        <v>266.333914584758</v>
       </c>
       <c r="G43" t="n">
-        <v>64.68215049679213</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="H43" t="n">
-        <v>64.68215049679213</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I43" t="n">
-        <v>64.68215049679213</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J43" t="n">
-        <v>122.1734787209502</v>
+        <v>157.5682731031482</v>
       </c>
       <c r="K43" t="n">
-        <v>348.7010799267873</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L43" t="n">
-        <v>703.3904012212081</v>
+        <v>738.7851956034061</v>
       </c>
       <c r="M43" t="n">
-        <v>1094.576196191459</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N43" t="n">
-        <v>1472.067707067495</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O43" t="n">
-        <v>1827.495835747258</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P43" t="n">
-        <v>2118.095047669159</v>
+        <v>2153.489842051357</v>
       </c>
       <c r="Q43" t="n">
-        <v>2245.09517790992</v>
+        <v>2280.489972292119</v>
       </c>
       <c r="R43" t="n">
-        <v>2198.056564597094</v>
+        <v>2280.489972292119</v>
       </c>
       <c r="S43" t="n">
-        <v>2027.921517116229</v>
+        <v>2280.489972292119</v>
       </c>
       <c r="T43" t="n">
-        <v>1784.582169342129</v>
+        <v>2280.489972292119</v>
       </c>
       <c r="U43" t="n">
-        <v>1648.057504961399</v>
+        <v>2000.305523792423</v>
       </c>
       <c r="V43" t="n">
-        <v>1648.057504961399</v>
+        <v>1873.618268055663</v>
       </c>
       <c r="W43" t="n">
-        <v>1373.205101133912</v>
+        <v>1598.765864228176</v>
       </c>
       <c r="X43" t="n">
-        <v>1130.641204579717</v>
+        <v>1356.201967673981</v>
       </c>
       <c r="Y43" t="n">
-        <v>904.2984362694593</v>
+        <v>1129.859199363723</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1379.884971015695</v>
+        <v>2503.578858279949</v>
       </c>
       <c r="C44" t="n">
-        <v>1318.290773574486</v>
+        <v>2076.678128293249</v>
       </c>
       <c r="D44" t="n">
-        <v>894.9981527594859</v>
+        <v>1653.385507478249</v>
       </c>
       <c r="E44" t="n">
-        <v>469.0212129073435</v>
+        <v>1227.408567626107</v>
       </c>
       <c r="F44" t="n">
-        <v>469.0212129073435</v>
+        <v>802.2843858155067</v>
       </c>
       <c r="G44" t="n">
-        <v>64.68215049679213</v>
+        <v>397.9453234049553</v>
       </c>
       <c r="H44" t="n">
-        <v>64.68215049679213</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I44" t="n">
-        <v>64.68215049679213</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J44" t="n">
-        <v>427.2856093136876</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K44" t="n">
-        <v>1142.793917289187</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L44" t="n">
-        <v>1142.793917289187</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M44" t="n">
-        <v>1142.793917289187</v>
+        <v>3112.09986070972</v>
       </c>
       <c r="N44" t="n">
-        <v>1151.744818897791</v>
+        <v>4088.350919196421</v>
       </c>
       <c r="O44" t="n">
-        <v>1952.186431295593</v>
+        <v>4178.011629909675</v>
       </c>
       <c r="P44" t="n">
-        <v>2660.465710453521</v>
+        <v>4886.290909067603</v>
       </c>
       <c r="Q44" t="n">
-        <v>3116.551189957704</v>
+        <v>4886.290909067603</v>
       </c>
       <c r="R44" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949505</v>
       </c>
       <c r="S44" t="n">
-        <v>3234.107524839607</v>
+        <v>4899.479949822646</v>
       </c>
       <c r="T44" t="n">
-        <v>3013.18195388424</v>
+        <v>4678.554378867279</v>
       </c>
       <c r="U44" t="n">
-        <v>3013.18195388424</v>
+        <v>4420.199469463691</v>
       </c>
       <c r="V44" t="n">
-        <v>3013.18195388424</v>
+        <v>4136.875841148494</v>
       </c>
       <c r="W44" t="n">
-        <v>2616.790604184587</v>
+        <v>3740.484491448841</v>
       </c>
       <c r="X44" t="n">
-        <v>2205.070605352334</v>
+        <v>3328.764492616588</v>
       </c>
       <c r="Y44" t="n">
-        <v>1799.733335307225</v>
+        <v>2923.427222571479</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>631.8056415282474</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C45" t="n">
-        <v>514.2997380457522</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D45" t="n">
-        <v>410.4597795610372</v>
+        <v>445.8545739432352</v>
       </c>
       <c r="E45" t="n">
-        <v>305.7578458339744</v>
+        <v>341.1526402161724</v>
       </c>
       <c r="F45" t="n">
-        <v>212.1120155168786</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G45" t="n">
-        <v>118.0582437344825</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H45" t="n">
-        <v>64.68215049679213</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I45" t="n">
-        <v>64.68215049679213</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J45" t="n">
-        <v>64.68215049679213</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K45" t="n">
-        <v>64.68215049679213</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L45" t="n">
-        <v>64.68215049679213</v>
+        <v>936.8757529618963</v>
       </c>
       <c r="M45" t="n">
-        <v>865.1237628945948</v>
+        <v>936.8757529618963</v>
       </c>
       <c r="N45" t="n">
-        <v>865.1237628945948</v>
+        <v>936.8757529618963</v>
       </c>
       <c r="O45" t="n">
-        <v>1157.172064038804</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="P45" t="n">
-        <v>1873.369781077302</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="Q45" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R45" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S45" t="n">
-        <v>1792.045533638556</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T45" t="n">
-        <v>1650.165597936235</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U45" t="n">
-        <v>1465.397401855871</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V45" t="n">
-        <v>1260.424262995137</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W45" t="n">
-        <v>1063.902885828355</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X45" t="n">
-        <v>900.4255395950178</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y45" t="n">
-        <v>760.7326509483102</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1970.618650244948</v>
+        <v>709.9368201910056</v>
       </c>
       <c r="C46" t="n">
-        <v>1798.646087123864</v>
+        <v>537.9642570699216</v>
       </c>
       <c r="D46" t="n">
-        <v>1635.329314250635</v>
+        <v>537.9642570699216</v>
       </c>
       <c r="E46" t="n">
-        <v>1469.121108403488</v>
+        <v>537.9642570699216</v>
       </c>
       <c r="F46" t="n">
-        <v>1297.259334178048</v>
+        <v>366.102482844482</v>
       </c>
       <c r="G46" t="n">
-        <v>1297.259334178048</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="H46" t="n">
-        <v>1153.463065686203</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I46" t="n">
-        <v>1053.694497426479</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J46" t="n">
-        <v>1111.185825650637</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K46" t="n">
-        <v>1337.713426856474</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L46" t="n">
-        <v>1692.402748150895</v>
+        <v>738.7851956034061</v>
       </c>
       <c r="M46" t="n">
-        <v>2083.588543121145</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N46" t="n">
-        <v>2461.080053997181</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O46" t="n">
-        <v>2816.508182676944</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P46" t="n">
-        <v>3107.107394598845</v>
+        <v>2153.489842051357</v>
       </c>
       <c r="Q46" t="n">
-        <v>3234.107524839607</v>
+        <v>2280.489972292119</v>
       </c>
       <c r="R46" t="n">
-        <v>3187.06891152678</v>
+        <v>2280.489972292119</v>
       </c>
       <c r="S46" t="n">
-        <v>3016.933864045915</v>
+        <v>2280.489972292119</v>
       </c>
       <c r="T46" t="n">
-        <v>3016.933864045915</v>
+        <v>2037.150624518019</v>
       </c>
       <c r="U46" t="n">
-        <v>3016.933864045915</v>
+        <v>1925.573324986982</v>
       </c>
       <c r="V46" t="n">
-        <v>2735.222396653944</v>
+        <v>1643.861857595011</v>
       </c>
       <c r="W46" t="n">
-        <v>2629.691283821466</v>
+        <v>1369.009453767524</v>
       </c>
       <c r="X46" t="n">
-        <v>2387.127387267271</v>
+        <v>1126.445557213329</v>
       </c>
       <c r="Y46" t="n">
-        <v>2160.784618957013</v>
+        <v>900.1027889030713</v>
       </c>
     </row>
   </sheetData>
@@ -7976,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
         <v>593.6590760150259</v>
       </c>
       <c r="N2" t="n">
-        <v>452.289812307084</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>593.6187724716183</v>
+        <v>300.4142109955939</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8052,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
         <v>20.61111433333334</v>
@@ -8064,13 +8066,13 @@
         <v>578.7428998298237</v>
       </c>
       <c r="M3" t="n">
-        <v>579.3245936279221</v>
+        <v>181.3705437721212</v>
       </c>
       <c r="N3" t="n">
         <v>577.5708413291358</v>
       </c>
       <c r="O3" t="n">
-        <v>91.07600343998001</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P3" t="n">
         <v>21.77084120482866</v>
@@ -8079,7 +8081,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8213,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>102.4815180266284</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>594.539855548217</v>
+        <v>572.0660045132436</v>
       </c>
       <c r="M5" t="n">
         <v>593.6590760150259</v>
       </c>
       <c r="N5" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
         <v>35.03264989479647</v>
@@ -8292,7 +8294,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
         <v>22.39923383333334</v>
@@ -8304,16 +8306,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>461.4026962257055</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
         <v>579.3997028378163</v>
       </c>
       <c r="P6" t="n">
-        <v>21.77084120482866</v>
+        <v>267.4386025673074</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
         <v>23.67291939414415</v>
@@ -8450,16 +8452,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>298.7878524343791</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
-        <v>593.6590760150259</v>
+        <v>547.9768619480852</v>
       </c>
       <c r="N8" t="n">
         <v>593.5074359500402</v>
@@ -8474,7 +8476,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,19 +8531,19 @@
         <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>180.7888499740228</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
         <v>579.3245936279221</v>
       </c>
       <c r="N9" t="n">
-        <v>577.5708413291358</v>
+        <v>548.7966943283913</v>
       </c>
       <c r="O9" t="n">
         <v>23.17188972222222</v>
@@ -8550,7 +8552,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
         <v>23.67291939414415</v>
@@ -8687,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K11" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L11" t="n">
-        <v>846.8389236425247</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>845.9178405659259</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>414.215814207112</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>480.7551415103962</v>
       </c>
       <c r="R11" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,7 +8768,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
         <v>22.39923383333334</v>
@@ -8775,13 +8777,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>831.6236617222298</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>296.4976262340836</v>
+        <v>481.0004784218838</v>
       </c>
       <c r="O12" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P12" t="n">
         <v>21.77084120482866</v>
@@ -8924,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>326.9474810844782</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>845.806504044348</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>845.9178405659261</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q14" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R14" t="n">
-        <v>153.7764225027789</v>
+        <v>106.0949474728494</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9012,13 +9014,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>23.09678051232798</v>
+        <v>392.4461590409599</v>
       </c>
       <c r="N15" t="n">
-        <v>765.3314412469917</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O15" t="n">
-        <v>831.6987709321241</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
         <v>21.77084120482866</v>
@@ -9027,7 +9029,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9170,7 +9172,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>772.395863235019</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N17" t="n">
         <v>1023.391803124043</v>
@@ -9179,10 +9181,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>37.5753618102313</v>
+        <v>218.8019602115997</v>
       </c>
       <c r="Q17" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R17" t="n">
         <v>35.03264989479647</v>
@@ -9249,13 +9251,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>1089.749849175</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N18" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O18" t="n">
-        <v>783.4760236661258</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
         <v>21.77084120482866</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
@@ -9407,7 +9409,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>56.96224792398087</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N20" t="n">
         <v>1023.391803124043</v>
@@ -9416,10 +9418,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q20" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R20" t="n">
         <v>35.03264989479647</v>
@@ -9486,13 +9488,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N21" t="n">
-        <v>949.8342934347922</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O21" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
         <v>21.77084120482866</v>
@@ -9723,10 +9725,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>749.7358553685299</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
@@ -9872,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
@@ -9881,22 +9883,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N26" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O26" t="n">
-        <v>791.8596365713911</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q26" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10197,10 +10199,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>1089.749849175</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N30" t="n">
-        <v>781.6471621574452</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
@@ -10352,7 +10354,7 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
-        <v>809.3863451554519</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
         <v>1051.861668373228</v>
@@ -10364,13 +10366,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>753.0089771212694</v>
+        <v>466.324307620685</v>
       </c>
       <c r="Q32" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,7 +10427,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J33" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K33" t="n">
         <v>22.39923383333334</v>
@@ -10434,13 +10436,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>475.2939470053066</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N33" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>23.17188972222222</v>
+        <v>783.4760236661258</v>
       </c>
       <c r="P33" t="n">
         <v>21.77084120482866</v>
@@ -10586,7 +10588,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K35" t="n">
-        <v>758.5002654165255</v>
+        <v>590.5593685239236</v>
       </c>
       <c r="L35" t="n">
         <v>977.3272420480539</v>
@@ -10601,7 +10603,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
         <v>36.12467460459804</v>
@@ -10674,10 +10676,10 @@
         <v>1089.749849175</v>
       </c>
       <c r="N36" t="n">
-        <v>21.34302821354166</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O36" t="n">
-        <v>783.4760236661258</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
         <v>21.77084120482866</v>
@@ -10838,7 +10840,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>585.0680802286663</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q38" t="n">
         <v>36.12467460459804</v>
@@ -10896,7 +10898,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J39" t="n">
         <v>20.61111433333334</v>
@@ -10908,13 +10910,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>1089.749849175</v>
+        <v>951.5880457335786</v>
       </c>
       <c r="N39" t="n">
-        <v>691.2775126154099</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P39" t="n">
         <v>21.77084120482866</v>
@@ -10923,7 +10925,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R39" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11063,25 +11065,25 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>845.9581441093335</v>
+        <v>194.3202945097499</v>
       </c>
       <c r="N41" t="n">
-        <v>845.8065040443478</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>438.5333032925817</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,28 +11138,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
         <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
-        <v>22.51508671422956</v>
+        <v>509.7471451685727</v>
       </c>
       <c r="M42" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>829.8699094234433</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>443.7517418254021</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
         <v>23.67291939414415</v>
@@ -11300,22 +11302,22 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>46.32093759061145</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
-        <v>845.9178405659259</v>
+        <v>127.9573338138569</v>
       </c>
       <c r="P44" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R44" t="n">
         <v>153.7764225027789</v>
@@ -11379,22 +11381,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M45" t="n">
-        <v>831.6236617222297</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>318.1701737062718</v>
+        <v>536.0439560200244</v>
       </c>
       <c r="P45" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
         <v>23.67291939414415</v>
@@ -23255,19 +23257,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486148</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>144.1017929357934</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924938</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23306,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>4.64841005134096</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23416,13 +23418,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>132.5574960296804</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
@@ -23431,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,10 +23478,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>191.4429354628581</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23495,10 +23497,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23507,10 +23509,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864459</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>190.5589814345697</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23549,13 +23551,13 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>107.9720312369321</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23650,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>13.45731826042032</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23707,13 +23709,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>79.23215548632174</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23902,10 +23904,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>30.86879708624124</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
         <v>98.77088257712678</v>
@@ -23935,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>44.5250625300167</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24130,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
         <v>164.5944000087102</v>
@@ -24145,7 +24147,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,13 +24177,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>162.300823137631</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>236.5356156878674</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24361,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24376,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>153.4739695386591</v>
       </c>
       <c r="H25" t="n">
-        <v>46.17758886925378</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24610,10 +24612,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>71.9894918991925</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>142.3583058069271</v>
@@ -24649,10 +24651,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>68.15019490184628</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24835,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24850,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,13 +24888,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>68.10191868181099</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24901,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>150.6932052766691</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -25072,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>3.558339693589488</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,13 +25125,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25327,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,13 +25362,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>133.6433575197708</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25375,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>117.9882506157206</v>
       </c>
     </row>
     <row r="38">
@@ -25594,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>22.13019988286467</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25640,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>116.1450435606251</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25694,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>107.9720312369302</v>
       </c>
     </row>
     <row r="42">
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25831,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>142.2231862777768</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>153.4739695386589</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25865,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>361.6534672200357</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25874,13 +25876,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>34.5479025439635</v>
@@ -25913,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>73.42412869296857</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26026,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26068,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>166.9210774789728</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>167.628078085059</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>438175.4830655381</v>
+        <v>581890.5930327498</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>438175.4830655382</v>
+        <v>581890.5930327498</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>590927.9832529633</v>
+        <v>590927.9832529634</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>590927.9832529633</v>
+        <v>590927.9832529634</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>590927.9832529633</v>
+        <v>590927.9832529632</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>590927.9832529633</v>
+        <v>590927.9832529634</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>438175.4830655382</v>
+        <v>581890.59303275</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>438175.4830655382</v>
+        <v>581890.5930327498</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>451393.0677086515</v>
+      </c>
+      <c r="C2" t="n">
         <v>451393.0677086514</v>
       </c>
-      <c r="C2" t="n">
-        <v>451393.0677086513</v>
-      </c>
       <c r="D2" t="n">
-        <v>451393.0677086513</v>
+        <v>451393.0677086514</v>
       </c>
       <c r="E2" t="n">
-        <v>322990.9468021279</v>
+        <v>428912.767824515</v>
       </c>
       <c r="F2" t="n">
-        <v>322990.946802128</v>
+        <v>428912.7678245154</v>
       </c>
       <c r="G2" t="n">
-        <v>435573.5624315215</v>
+        <v>435573.5624315218</v>
       </c>
       <c r="H2" t="n">
         <v>435573.5624315215</v>
       </c>
       <c r="I2" t="n">
-        <v>435573.5624315217</v>
+        <v>435573.5624315215</v>
       </c>
       <c r="J2" t="n">
         <v>435573.5624315217</v>
       </c>
       <c r="K2" t="n">
+        <v>435573.5624315216</v>
+      </c>
+      <c r="L2" t="n">
         <v>435573.5624315217</v>
       </c>
-      <c r="L2" t="n">
-        <v>435573.5624315215</v>
-      </c>
       <c r="M2" t="n">
-        <v>435573.5624315215</v>
+        <v>435573.5624315214</v>
       </c>
       <c r="N2" t="n">
-        <v>435573.5624315217</v>
+        <v>435573.5624315214</v>
       </c>
       <c r="O2" t="n">
-        <v>322990.946802128</v>
+        <v>428912.7678245154</v>
       </c>
       <c r="P2" t="n">
-        <v>322990.946802128</v>
+        <v>428912.7678245152</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>75330.9511534622</v>
+        <v>207432.287616561</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>128890.3998115405</v>
+        <v>7625.62208348132</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>62873.93696537387</v>
+        <v>173130.4912056396</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,22 +26426,22 @@
         <v>165375.7390424566</v>
       </c>
       <c r="E4" t="n">
-        <v>32409.76799618235</v>
+        <v>43077.56596046206</v>
       </c>
       <c r="F4" t="n">
-        <v>32409.76799618236</v>
+        <v>43077.56596046206</v>
       </c>
       <c r="G4" t="n">
-        <v>43748.40045389551</v>
+        <v>43748.40045389556</v>
       </c>
       <c r="H4" t="n">
-        <v>43748.40045389552</v>
+        <v>43748.40045389557</v>
       </c>
       <c r="I4" t="n">
+        <v>43748.40045389557</v>
+      </c>
+      <c r="J4" t="n">
         <v>43748.40045389556</v>
-      </c>
-      <c r="J4" t="n">
-        <v>43748.40045389553</v>
       </c>
       <c r="K4" t="n">
         <v>43748.40045389556</v>
@@ -26448,16 +26450,16 @@
         <v>43748.40045389556</v>
       </c>
       <c r="M4" t="n">
-        <v>43748.40045389556</v>
+        <v>43748.40045389557</v>
       </c>
       <c r="N4" t="n">
         <v>43748.40045389556</v>
       </c>
       <c r="O4" t="n">
-        <v>32409.76799618241</v>
+        <v>43077.56596046207</v>
       </c>
       <c r="P4" t="n">
-        <v>32409.76799618241</v>
+        <v>43077.56596046207</v>
       </c>
     </row>
     <row r="5">
@@ -26476,13 +26478,13 @@
         <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>49158.43437756203</v>
+        <v>76058.47810803248</v>
       </c>
       <c r="F5" t="n">
-        <v>49158.43437756204</v>
+        <v>76058.47810803248</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="H5" t="n">
         <v>77750.06218842969</v>
@@ -26503,13 +26505,13 @@
         <v>77750.06218842969</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>49158.43437756202</v>
+        <v>76058.4781080325</v>
       </c>
       <c r="P5" t="n">
-        <v>49158.43437756202</v>
+        <v>76058.47810803248</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>32166.34421402941</v>
+        <v>32166.34421402952</v>
       </c>
       <c r="C6" t="n">
         <v>218571.0776287666</v>
       </c>
       <c r="D6" t="n">
-        <v>218571.0776287666</v>
+        <v>218571.0776287667</v>
       </c>
       <c r="E6" t="n">
-        <v>166091.7932749214</v>
+        <v>102344.4361394595</v>
       </c>
       <c r="F6" t="n">
-        <v>241422.7444283837</v>
+        <v>309776.7237560208</v>
       </c>
       <c r="G6" t="n">
-        <v>185184.6999776558</v>
+        <v>306449.4777057153</v>
       </c>
       <c r="H6" t="n">
         <v>314075.0997891963</v>
       </c>
       <c r="I6" t="n">
-        <v>314075.0997891964</v>
+        <v>314075.0997891962</v>
       </c>
       <c r="J6" t="n">
         <v>168541.42985438</v>
       </c>
       <c r="K6" t="n">
+        <v>314075.0997891963</v>
+      </c>
+      <c r="L6" t="n">
         <v>314075.0997891964</v>
       </c>
-      <c r="L6" t="n">
-        <v>314075.0997891963</v>
-      </c>
       <c r="M6" t="n">
-        <v>251201.1628238224</v>
+        <v>140944.6085835565</v>
       </c>
       <c r="N6" t="n">
-        <v>314075.0997891965</v>
+        <v>314075.0997891962</v>
       </c>
       <c r="O6" t="n">
-        <v>241422.7444283835</v>
+        <v>309776.7237560208</v>
       </c>
       <c r="P6" t="n">
-        <v>241422.7444283836</v>
+        <v>309776.7237560207</v>
       </c>
     </row>
   </sheetData>
@@ -26796,13 +26798,13 @@
         <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>808.5268812099018</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="F4" t="n">
-        <v>808.5268812099019</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="G4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="H4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>808.5268812099017</v>
+        <v>1250.961810987377</v>
       </c>
       <c r="P4" t="n">
-        <v>808.5268812099017</v>
+        <v>1250.961810987376</v>
       </c>
     </row>
   </sheetData>
@@ -27018,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>252.2990680943078</v>
+        <v>694.7339978717821</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>470.2570363629549</v>
+        <v>27.82210658548012</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>252.2990680943078</v>
+        <v>694.7339978717821</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>252.2990680943078</v>
+        <v>694.7339978717821</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>470.2570363629549</v>
+        <v>27.82210658548012</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>290.4897201912249</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
@@ -27388,7 +27390,7 @@
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>74.65813289307454</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27397,7 +27399,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27445,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>85.11443092146934</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27555,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,13 +27587,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27603,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>216.4304263591263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>80.8038391566601</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
@@ -27631,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>273.7967702455326</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>400</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,19 +27776,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>85.11443092147027</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27825,16 +27827,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>67.34544680457961</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>152.6181964616704</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>55.08045499971968</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27868,7 +27870,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -27913,10 +27915,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28020,13 +28022,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28071,13 +28073,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>221.0469266229329</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>157.2563333981139</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-3.453686889477613e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>-3.453686889477613e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-3.453686889477613e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-3.453686889477613e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-3.453686889477613e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-3.453686889477613e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>-3.453686889477613e-14</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-7.672738562000269e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-3.453686889477613e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>-3.453686889477613e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-3.453686889477613e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-3.453686889477613e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>-3.453686889477613e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>-3.453686889477613e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28582,7 +28584,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>-8.313350008393172e-13</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28740,7 +28742,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>-1.276645200792784e-12</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28804,7 +28806,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="N2" t="n">
-        <v>415.010189472638</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
+        <v>263.0232516395698</v>
+      </c>
+      <c r="P2" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34772,7 +34774,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -34784,13 +34786,13 @@
         <v>556.2278131155941</v>
       </c>
       <c r="M3" t="n">
-        <v>556.2278131155941</v>
+        <v>158.2737632597932</v>
       </c>
       <c r="N3" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="O3" t="n">
-        <v>67.9041137177578</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -34799,7 +34801,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.06155854104185</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
-        <v>556.2278131155941</v>
+        <v>533.7539620806207</v>
       </c>
       <c r="M5" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -35024,16 +35026,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>440.0596680121639</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>245.6677613624788</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,16 +35172,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>263.0232516395698</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M8" t="n">
-        <v>556.2278131155941</v>
+        <v>510.5455990486534</v>
       </c>
       <c r="N8" t="n">
         <v>556.2278131155941</v>
@@ -35194,7 +35196,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,19 +35251,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>158.2737632597932</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="N9" t="n">
-        <v>556.2278131155941</v>
+        <v>527.4536661148496</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35270,7 +35272,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>808.5268812099018</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>808.5268812099018</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>376.6404523968807</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>444.6304669057981</v>
       </c>
       <c r="R11" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35495,13 +35497,13 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>808.5268812099018</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>275.1545980205419</v>
+        <v>459.6574502083421</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>289.5162181850464</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>808.5268812099019</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>808.5268812099019</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>118.7437726079824</v>
+        <v>71.06229757805292</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35732,13 +35734,13 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>369.3493785286319</v>
       </c>
       <c r="N15" t="n">
-        <v>743.9884130334501</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O15" t="n">
-        <v>808.5268812099019</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35747,7 +35749,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35811,7 +35813,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M16" t="n">
-        <v>395.1371666366147</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N16" t="n">
         <v>381.3045564404402</v>
@@ -35890,7 +35892,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>734.9646003355872</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N17" t="n">
         <v>986.1121802895968</v>
@@ -35899,10 +35901,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>181.2265984013684</v>
       </c>
       <c r="Q17" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35969,13 +35971,13 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1066.653068662672</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O18" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36118,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
@@ -36127,7 +36129,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>19.53098502454905</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N20" t="n">
         <v>986.1121802895968</v>
@@ -36136,10 +36138,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q20" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36206,13 +36208,13 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N21" t="n">
-        <v>928.4912652212506</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O21" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36443,10 +36445,10 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>726.6390748562019</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36592,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
@@ -36601,22 +36603,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N26" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O26" t="n">
-        <v>754.4686772153671</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q26" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36917,10 +36919,10 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1066.653068662672</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N30" t="n">
-        <v>760.3041339439036</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -37072,7 +37074,7 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
-        <v>771.074302722829</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
         <v>1014.430405473796</v>
@@ -37084,13 +37086,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>715.433615311038</v>
+        <v>428.7489458104537</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -37154,13 +37156,13 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>452.1971664929786</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N33" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37306,7 +37308,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>722.7356646217162</v>
+        <v>554.7947677291143</v>
       </c>
       <c r="L35" t="n">
         <v>939.015199615431</v>
@@ -37321,7 +37323,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37394,10 +37396,10 @@
         <v>1066.653068662672</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O36" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37558,7 +37560,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>547.4927184184349</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37616,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -37628,13 +37630,13 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1066.653068662672</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="N39" t="n">
-        <v>669.9344844018683</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37643,7 +37645,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37783,25 +37785,25 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>808.5268812099017</v>
+        <v>156.8890316103181</v>
       </c>
       <c r="N41" t="n">
-        <v>808.5268812099017</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>400.9579414823504</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
         <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>487.2320584543431</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>808.5268812099017</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>421.9809006205734</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38020,22 +38022,22 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>9.041314756165427</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
-        <v>808.5268812099017</v>
+        <v>90.56637445783284</v>
       </c>
       <c r="P44" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>118.7437726079824</v>
@@ -38099,22 +38101,22 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M45" t="n">
-        <v>808.5268812099017</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>294.9982839840496</v>
+        <v>512.8720662978022</v>
       </c>
       <c r="P45" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_31.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1906001.294268827</v>
+        <v>1905283.304153969</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11857191.11602537</v>
+        <v>11857191.11602536</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>698313.6830760729</v>
+        <v>698313.683076074</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6814710.443889678</v>
+        <v>6814710.443889677</v>
       </c>
     </row>
     <row r="11">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>125.1601604573898</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
-        <v>22.63172268683286</v>
+        <v>414.8887015517798</v>
       </c>
       <c r="D2" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
         <v>0.2956717864458369</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="3">
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>103.1498781034757</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>77.34040729634172</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,13 +867,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>278.8943527180514</v>
@@ -898,25 +898,25 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C5" t="n">
-        <v>341.8278835301728</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>200.6909053098321</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
         <v>1.283897344658556</v>
@@ -1056,25 +1056,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>79.47996908723991</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1110,16 +1110,16 @@
         <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>218.0080577057887</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>224.0793406271554</v>
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>263.0316841869443</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
         <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
         <v>20.87293999249374</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
         <v>255.7713603095518</v>
@@ -1195,13 +1195,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>317.7693033095819</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="9">
@@ -1296,16 +1296,16 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
         <v>142.3583058069271</v>
@@ -1359,7 +1359,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>66.82300722904147</v>
+        <v>58.31517967031814</v>
       </c>
     </row>
     <row r="11">
@@ -1387,7 +1387,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>186.9176635037728</v>
       </c>
       <c r="I11" t="n">
         <v>34.5479025439635</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>214.0679051944722</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
         <v>255.7713603095518</v>
@@ -1533,13 +1533,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>29.12610911481657</v>
+        <v>56.37605845904546</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
         <v>164.5944000087102</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>307.6778494116822</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
@@ -1663,7 +1663,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>147.7993290726197</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
         <v>353.914520725013</v>
@@ -1818,16 +1818,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W16" t="n">
-        <v>192.8717243028904</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
         <v>240.1382575886529</v>
@@ -1861,7 +1861,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407063</v>
       </c>
       <c r="I17" t="n">
         <v>34.5479025439635</v>
@@ -2007,16 +2007,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>49.87597792716544</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>123.9086344760398</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
@@ -2244,13 +2244,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>6.13287386842549</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
@@ -2481,16 +2481,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>11.12043047005107</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
         <v>277.3826040146988</v>
@@ -2727,7 +2727,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>172.7557593945127</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>205.3931121155064</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>121.5805385097619</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
         <v>277.3826040146988</v>
@@ -3015,10 +3015,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>89.44505231198379</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -3426,10 +3426,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
@@ -3444,7 +3444,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,10 +3477,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>36.10416728878367</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
@@ -3489,10 +3489,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>106.0910900114347</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -3666,22 +3666,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
@@ -3729,7 +3729,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>152.0898487279629</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3796,7 +3796,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>182.3472316165828</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
@@ -3808,7 +3808,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>293.3118661077283</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -3903,22 +3903,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>3.222079004211921</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,13 +3951,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>125.4203831793925</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
@@ -3997,7 +3997,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4036,10 +4036,10 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>280.4903920320444</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>284.4554049657235</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
@@ -4137,25 +4137,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>124.3387367898098</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>110.4615265357259</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>164.8266109787492</v>
+        <v>1738.270122414086</v>
       </c>
       <c r="C2" t="n">
-        <v>141.9662850324534</v>
+        <v>1319.190625897137</v>
       </c>
       <c r="D2" t="n">
-        <v>122.7140682578577</v>
+        <v>895.898005082137</v>
       </c>
       <c r="E2" t="n">
-        <v>100.7775324461193</v>
+        <v>469.9210652299946</v>
       </c>
       <c r="F2" t="n">
-        <v>79.69375467592363</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G2" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H2" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I2" t="n">
         <v>44.49822504924753</v>
@@ -4336,22 +4336,22 @@
         <v>407.101683866143</v>
       </c>
       <c r="L2" t="n">
-        <v>407.101683866143</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M2" t="n">
-        <v>957.7672188505812</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="N2" t="n">
-        <v>957.7672188505812</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="O2" t="n">
-        <v>1218.160237973755</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="P2" t="n">
-        <v>1768.825772958194</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q2" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R2" t="n">
         <v>2224.911252462377</v>
@@ -4363,19 +4363,19 @@
         <v>2120.543958335517</v>
       </c>
       <c r="U2" t="n">
-        <v>1862.189048931929</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V2" t="n">
-        <v>1504.699634058179</v>
+        <v>1763.054543461766</v>
       </c>
       <c r="W2" t="n">
-        <v>1108.308284358525</v>
+        <v>1763.054543461766</v>
       </c>
       <c r="X2" t="n">
-        <v>696.5882855262728</v>
+        <v>1755.374948669918</v>
       </c>
       <c r="Y2" t="n">
-        <v>291.2510154811631</v>
+        <v>1754.078082665212</v>
       </c>
     </row>
     <row r="3">
@@ -4406,31 +4406,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I3" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J3" t="n">
-        <v>44.49822504924753</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K3" t="n">
-        <v>44.49822504924753</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L3" t="n">
-        <v>595.1637600336857</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M3" t="n">
-        <v>751.8547856608809</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="N3" t="n">
-        <v>1302.520320645319</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="O3" t="n">
-        <v>1853.185855629757</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="P3" t="n">
-        <v>1853.185855629757</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="Q3" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R3" t="n">
         <v>1853.185855629757</v>
@@ -4464,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>354.551463246861</v>
+        <v>962.2361343535731</v>
       </c>
       <c r="C4" t="n">
-        <v>354.551463246861</v>
+        <v>790.2635712324891</v>
       </c>
       <c r="D4" t="n">
-        <v>354.551463246861</v>
+        <v>626.9467983592598</v>
       </c>
       <c r="E4" t="n">
-        <v>354.551463246861</v>
+        <v>460.7385925121133</v>
       </c>
       <c r="F4" t="n">
-        <v>354.551463246861</v>
+        <v>288.8768182866737</v>
       </c>
       <c r="G4" t="n">
-        <v>188.2944935410931</v>
+        <v>122.6198485809059</v>
       </c>
       <c r="H4" t="n">
-        <v>44.49822504924753</v>
+        <v>122.6198485809059</v>
       </c>
       <c r="I4" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J4" t="n">
-        <v>101.9895532734058</v>
+        <v>101.9895532734062</v>
       </c>
       <c r="K4" t="n">
-        <v>328.5171544792431</v>
+        <v>328.5171544792433</v>
       </c>
       <c r="L4" t="n">
-        <v>683.2064757736639</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M4" t="n">
         <v>1074.392270743915</v>
       </c>
       <c r="N4" t="n">
-        <v>1451.88378161995</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O4" t="n">
         <v>1807.311910299714</v>
@@ -4515,25 +4515,25 @@
         <v>2177.87263914955</v>
       </c>
       <c r="S4" t="n">
-        <v>2007.737591668685</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="T4" t="n">
-        <v>1764.398243894585</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="U4" t="n">
-        <v>1484.213795394889</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="V4" t="n">
-        <v>1202.502328002918</v>
+        <v>1896.161171757579</v>
       </c>
       <c r="W4" t="n">
-        <v>927.6499241754307</v>
+        <v>1621.308767930092</v>
       </c>
       <c r="X4" t="n">
-        <v>685.0860276212358</v>
+        <v>1378.744871375897</v>
       </c>
       <c r="Y4" t="n">
-        <v>458.7432593109778</v>
+        <v>1152.402103065639</v>
       </c>
     </row>
     <row r="5">
@@ -4543,49 +4543,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1295.32778354778</v>
+        <v>1639.919330369398</v>
       </c>
       <c r="C5" t="n">
-        <v>950.0470931132616</v>
+        <v>1617.059004423102</v>
       </c>
       <c r="D5" t="n">
-        <v>526.7544722982618</v>
+        <v>1193.766383608102</v>
       </c>
       <c r="E5" t="n">
-        <v>504.8179364865234</v>
+        <v>767.7894437559598</v>
       </c>
       <c r="F5" t="n">
-        <v>483.7341587163277</v>
+        <v>342.66526194536</v>
       </c>
       <c r="G5" t="n">
-        <v>79.39509630577632</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H5" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I5" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>44.49822504924753</v>
+        <v>116.829168004879</v>
       </c>
       <c r="K5" t="n">
-        <v>595.1637600336857</v>
+        <v>116.829168004879</v>
       </c>
       <c r="L5" t="n">
-        <v>1123.5801824935</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="M5" t="n">
-        <v>1674.245717477938</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="N5" t="n">
-        <v>1674.245717477938</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="O5" t="n">
-        <v>2224.911252462377</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P5" t="n">
-        <v>2224.911252462377</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q5" t="n">
         <v>2224.911252462377</v>
@@ -4594,25 +4594,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U5" t="n">
-        <v>2120.543958335517</v>
+        <v>2022.193166290829</v>
       </c>
       <c r="V5" t="n">
-        <v>2120.543958335517</v>
+        <v>1664.703751417078</v>
       </c>
       <c r="W5" t="n">
-        <v>1724.152608635864</v>
+        <v>1664.703751417078</v>
       </c>
       <c r="X5" t="n">
-        <v>1312.432609803611</v>
+        <v>1657.02415662523</v>
       </c>
       <c r="Y5" t="n">
-        <v>1311.135743798905</v>
+        <v>1655.727290620524</v>
       </c>
     </row>
     <row r="6">
@@ -4643,31 +4643,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>44.49822504924753</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K6" t="n">
-        <v>44.49822504924753</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="L6" t="n">
-        <v>595.1637600336857</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="M6" t="n">
-        <v>595.1637600336857</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="N6" t="n">
-        <v>595.1637600336857</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="O6" t="n">
-        <v>1145.829295018124</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P6" t="n">
-        <v>1389.040378766978</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q6" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R6" t="n">
         <v>1853.185855629757</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>268.5772905989112</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C7" t="n">
-        <v>268.5772905989112</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D7" t="n">
-        <v>268.5772905989112</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E7" t="n">
-        <v>268.5772905989112</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F7" t="n">
-        <v>268.5772905989112</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G7" t="n">
-        <v>188.2944935410931</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H7" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>101.9895532734055</v>
+        <v>101.9895532734062</v>
       </c>
       <c r="K7" t="n">
-        <v>328.5171544792427</v>
+        <v>328.5171544792433</v>
       </c>
       <c r="L7" t="n">
-        <v>683.2064757736634</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M7" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N7" t="n">
-        <v>1451.88378161995</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O7" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P7" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q7" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.872639149549</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S7" t="n">
-        <v>2007.737591668684</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="T7" t="n">
-        <v>1764.398243894584</v>
+        <v>1764.398243894585</v>
       </c>
       <c r="U7" t="n">
-        <v>1484.213795394888</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="V7" t="n">
-        <v>1202.502328002917</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="W7" t="n">
-        <v>927.6499241754298</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="X7" t="n">
-        <v>685.0860276212348</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y7" t="n">
-        <v>458.7432593109769</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="8">
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>129.9297397222204</v>
+        <v>938.0105478030285</v>
       </c>
       <c r="C8" t="n">
-        <v>107.0694137759246</v>
+        <v>915.1502218567327</v>
       </c>
       <c r="D8" t="n">
-        <v>87.81719700132894</v>
+        <v>491.857601041733</v>
       </c>
       <c r="E8" t="n">
         <v>65.88066118959054</v>
@@ -4804,25 +4804,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L8" t="n">
-        <v>595.1637600336857</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M8" t="n">
-        <v>1100.603903091853</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="N8" t="n">
-        <v>1651.269438076291</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="O8" t="n">
-        <v>1651.269438076291</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="P8" t="n">
-        <v>1651.269438076291</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q8" t="n">
         <v>2107.354917580474</v>
@@ -4831,25 +4831,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>2224.911252462377</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U8" t="n">
-        <v>1966.556343058789</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V8" t="n">
-        <v>1609.066928185038</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="W8" t="n">
-        <v>1212.675578485385</v>
+        <v>962.7949688507089</v>
       </c>
       <c r="X8" t="n">
-        <v>800.9555796531324</v>
+        <v>955.1153740588602</v>
       </c>
       <c r="Y8" t="n">
-        <v>395.6183096080227</v>
+        <v>953.8185080541546</v>
       </c>
     </row>
     <row r="9">
@@ -4883,16 +4883,16 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>316.1957143288386</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K9" t="n">
-        <v>316.1957143288386</v>
+        <v>287.7093087981016</v>
       </c>
       <c r="L9" t="n">
-        <v>316.1957143288386</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="M9" t="n">
-        <v>866.8612493132769</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="N9" t="n">
         <v>1389.040378766978</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>617.588040521193</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="C10" t="n">
-        <v>617.588040521193</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="D10" t="n">
-        <v>454.2712676479637</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="E10" t="n">
-        <v>288.0630618008172</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F10" t="n">
-        <v>288.0630618008172</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G10" t="n">
         <v>288.0630618008172</v>
@@ -5007,7 +5007,7 @@
         <v>685.0860276212348</v>
       </c>
       <c r="Y10" t="n">
-        <v>617.588040521193</v>
+        <v>626.1818057320246</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2538.475729536478</v>
+        <v>2429.413071721394</v>
       </c>
       <c r="C11" t="n">
-        <v>2111.574999549778</v>
+        <v>2002.512341734694</v>
       </c>
       <c r="D11" t="n">
-        <v>1688.282378734778</v>
+        <v>1579.219720919694</v>
       </c>
       <c r="E11" t="n">
-        <v>1262.305438882635</v>
+        <v>1153.242781067552</v>
       </c>
       <c r="F11" t="n">
-        <v>837.1812570720355</v>
+        <v>728.1185992569519</v>
       </c>
       <c r="G11" t="n">
-        <v>432.8421946614841</v>
+        <v>323.7795368464006</v>
       </c>
       <c r="H11" t="n">
         <v>134.9738161355189</v>
@@ -5041,52 +5041,52 @@
         <v>100.0769448789901</v>
       </c>
       <c r="J11" t="n">
-        <v>100.0769448789901</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K11" t="n">
-        <v>100.0769448789901</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L11" t="n">
-        <v>1029.701992498267</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M11" t="n">
-        <v>2033.988093917325</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="N11" t="n">
-        <v>3010.239152404026</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O11" t="n">
-        <v>3855.383802554838</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P11" t="n">
-        <v>4563.663081712765</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q11" t="n">
-        <v>5003.847243949505</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R11" t="n">
-        <v>5003.847243949505</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S11" t="n">
-        <v>5003.847243949505</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T11" t="n">
-        <v>4787.617036682362</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U11" t="n">
-        <v>4529.262127278774</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V11" t="n">
-        <v>4171.772712405023</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W11" t="n">
-        <v>3775.38136270537</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X11" t="n">
-        <v>3363.661363873117</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y11" t="n">
-        <v>2958.324093828008</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="12">
@@ -5102,10 +5102,10 @@
         <v>549.6945324279501</v>
       </c>
       <c r="D12" t="n">
-        <v>445.8545739432352</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E12" t="n">
-        <v>341.1526402161724</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F12" t="n">
         <v>247.5068098990765</v>
@@ -5117,31 +5117,31 @@
         <v>100.0769448789901</v>
       </c>
       <c r="I12" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J12" t="n">
-        <v>100.0769448789901</v>
+        <v>379.221077120493</v>
       </c>
       <c r="K12" t="n">
-        <v>100.0769448789901</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="L12" t="n">
-        <v>100.0769448789901</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="M12" t="n">
-        <v>100.0769448789901</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="N12" t="n">
-        <v>555.1378205852488</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="O12" t="n">
-        <v>1444.619098596721</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="P12" t="n">
-        <v>1444.619098596721</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="Q12" t="n">
-        <v>1908.7645754595</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="R12" t="n">
         <v>1908.7645754595</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>567.4953582027545</v>
+        <v>933.0905396331475</v>
       </c>
       <c r="C13" t="n">
-        <v>395.5227950816704</v>
+        <v>761.1179765120635</v>
       </c>
       <c r="D13" t="n">
-        <v>366.102482844482</v>
+        <v>704.1724629170681</v>
       </c>
       <c r="E13" t="n">
-        <v>366.102482844482</v>
+        <v>537.9642570699216</v>
       </c>
       <c r="F13" t="n">
         <v>366.102482844482</v>
@@ -5205,7 +5205,7 @@
         <v>384.0958743089853</v>
       </c>
       <c r="L13" t="n">
-        <v>738.7851956034061</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M13" t="n">
         <v>1129.970990573657</v>
@@ -5217,34 +5217,34 @@
         <v>1862.890630129456</v>
       </c>
       <c r="P13" t="n">
-        <v>2153.489842051357</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q13" t="n">
-        <v>2280.489972292119</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R13" t="n">
-        <v>2233.451358979292</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S13" t="n">
-        <v>2063.316311498427</v>
+        <v>2110.354924811253</v>
       </c>
       <c r="T13" t="n">
-        <v>2063.316311498427</v>
+        <v>1867.015577037153</v>
       </c>
       <c r="U13" t="n">
-        <v>1783.131862998731</v>
+        <v>1867.015577037153</v>
       </c>
       <c r="V13" t="n">
-        <v>1501.42039560676</v>
+        <v>1867.015577037153</v>
       </c>
       <c r="W13" t="n">
-        <v>1226.567991779273</v>
+        <v>1592.163173209666</v>
       </c>
       <c r="X13" t="n">
-        <v>984.004095225078</v>
+        <v>1349.599276655471</v>
       </c>
       <c r="Y13" t="n">
-        <v>757.6613269148201</v>
+        <v>1123.256508345213</v>
       </c>
     </row>
     <row r="14">
@@ -5287,43 +5287,43 @@
         <v>2107.813759290661</v>
       </c>
       <c r="M14" t="n">
-        <v>3112.09986070972</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="N14" t="n">
-        <v>4088.350919196421</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O14" t="n">
-        <v>4933.495569347233</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P14" t="n">
-        <v>4933.495569347233</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q14" t="n">
-        <v>4933.495569347233</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R14" t="n">
-        <v>5003.847243949505</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S14" t="n">
-        <v>4899.479949822646</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T14" t="n">
-        <v>4678.554378867279</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U14" t="n">
-        <v>4529.262127278774</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V14" t="n">
-        <v>4171.772712405023</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W14" t="n">
-        <v>3775.38136270537</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X14" t="n">
-        <v>3363.661363873117</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y14" t="n">
-        <v>2958.324093828008</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="15">
@@ -5339,10 +5339,10 @@
         <v>549.6945324279501</v>
       </c>
       <c r="D15" t="n">
-        <v>445.8545739432352</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E15" t="n">
-        <v>341.1526402161724</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F15" t="n">
         <v>247.5068098990765</v>
@@ -5363,19 +5363,19 @@
         <v>371.7744341585812</v>
       </c>
       <c r="L15" t="n">
-        <v>371.7744341585812</v>
+        <v>1208.573242241487</v>
       </c>
       <c r="M15" t="n">
-        <v>737.4303189019267</v>
+        <v>1208.573242241487</v>
       </c>
       <c r="N15" t="n">
-        <v>1826.745265374797</v>
+        <v>1208.573242241487</v>
       </c>
       <c r="O15" t="n">
-        <v>1826.745265374797</v>
+        <v>1208.573242241487</v>
       </c>
       <c r="P15" t="n">
-        <v>1826.745265374797</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="Q15" t="n">
         <v>1826.745265374797</v>
@@ -5442,7 +5442,7 @@
         <v>384.0958743089853</v>
       </c>
       <c r="L16" t="n">
-        <v>738.7851956034061</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M16" t="n">
         <v>1129.970990573657</v>
@@ -5454,25 +5454,25 @@
         <v>1862.890630129456</v>
       </c>
       <c r="P16" t="n">
-        <v>2153.489842051357</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q16" t="n">
-        <v>2280.489972292119</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R16" t="n">
-        <v>2280.489972292119</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S16" t="n">
-        <v>2280.489972292119</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="T16" t="n">
-        <v>2037.150624518019</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="U16" t="n">
-        <v>2037.150624518019</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="V16" t="n">
-        <v>2037.150624518019</v>
+        <v>2117.183104807232</v>
       </c>
       <c r="W16" t="n">
         <v>1842.330700979745</v>
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H17" t="n">
         <v>137.1995846623573</v>
@@ -5515,7 +5515,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
         <v>1180.414480198223</v>
@@ -5524,43 +5524,43 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>3114.325629236558</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N17" t="n">
-        <v>4090.576687723259</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O17" t="n">
-        <v>4935.721337874071</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P17" t="n">
-        <v>5115.135670291425</v>
+        <v>4639.71451561294</v>
       </c>
       <c r="Q17" t="n">
-        <v>5115.135670291425</v>
+        <v>5095.799995117123</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164566</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U17" t="n">
-        <v>4531.487895805611</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.99848093186</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232207</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="18">
@@ -5585,7 +5585,7 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G18" t="n">
-        <v>155.6788066435189</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H18" t="n">
         <v>102.3027134058285</v>
@@ -5600,19 +5600,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L18" t="n">
-        <v>102.3027134058285</v>
+        <v>730.647150085061</v>
       </c>
       <c r="M18" t="n">
-        <v>821.6753975134684</v>
+        <v>730.647150085061</v>
       </c>
       <c r="N18" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="O18" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q18" t="n">
         <v>1910.990343986338</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>941.9189991784957</v>
+        <v>496.5168264363576</v>
       </c>
       <c r="C19" t="n">
-        <v>769.9464360574117</v>
+        <v>324.5442633152736</v>
       </c>
       <c r="D19" t="n">
-        <v>606.6296631841824</v>
+        <v>324.5442633152736</v>
       </c>
       <c r="E19" t="n">
-        <v>440.4214573370359</v>
+        <v>324.5442633152736</v>
       </c>
       <c r="F19" t="n">
-        <v>268.5596831115964</v>
+        <v>152.682489089834</v>
       </c>
       <c r="G19" t="n">
         <v>102.3027134058285</v>
@@ -5673,10 +5673,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5697,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S19" t="n">
-        <v>2157.555503974472</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T19" t="n">
-        <v>2157.555503974472</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U19" t="n">
-        <v>2157.555503974472</v>
+        <v>1712.153331232334</v>
       </c>
       <c r="V19" t="n">
-        <v>1875.844036582501</v>
+        <v>1430.441863840363</v>
       </c>
       <c r="W19" t="n">
-        <v>1600.991632755014</v>
+        <v>1155.589460012876</v>
       </c>
       <c r="X19" t="n">
-        <v>1358.427736200819</v>
+        <v>913.0255634586812</v>
       </c>
       <c r="Y19" t="n">
-        <v>1132.084967890561</v>
+        <v>686.6827951484232</v>
       </c>
     </row>
     <row r="20">
@@ -5752,25 +5752,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2751.722170419663</v>
+        <v>2974.519853142615</v>
       </c>
       <c r="N20" t="n">
-        <v>3727.973228906364</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="O20" t="n">
-        <v>4573.117879057176</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P20" t="n">
-        <v>5115.135670291427</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q20" t="n">
         <v>5115.135670291427</v>
@@ -5837,10 +5837,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M21" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N21" t="n">
         <v>1910.990343986338</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>537.3606176598659</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C22" t="n">
-        <v>365.3880545387819</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D22" t="n">
-        <v>202.0712816655526</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E22" t="n">
-        <v>202.0712816655526</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F22" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
@@ -5937,25 +5937,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2276.520918729638</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T22" t="n">
-        <v>2033.181570955538</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U22" t="n">
-        <v>1752.997122455842</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V22" t="n">
-        <v>1471.285655063871</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W22" t="n">
-        <v>1196.433251236384</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X22" t="n">
-        <v>953.8693546821894</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y22" t="n">
-        <v>727.5265863719314</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="23">
@@ -5989,28 +5989,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6071,25 +6071,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="M24" t="n">
-        <v>1158.289251381874</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3619.314716995755</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C25" t="n">
-        <v>3447.342153874671</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D25" t="n">
-        <v>3284.025381001441</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E25" t="n">
-        <v>3117.817175154295</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F25" t="n">
-        <v>2945.955400928855</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K25" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L25" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M25" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N25" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O25" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P25" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q25" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>5115.135670291427</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T25" t="n">
-        <v>5115.135670291427</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U25" t="n">
-        <v>4834.951221791732</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V25" t="n">
-        <v>4553.23975439976</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W25" t="n">
-        <v>4278.387350572273</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X25" t="n">
-        <v>4035.823454018078</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y25" t="n">
-        <v>3809.48068570782</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="26">
@@ -6226,28 +6226,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N26" t="n">
-        <v>3727.973228906364</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="O26" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6305,28 +6305,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M27" t="n">
-        <v>821.6753975134684</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N27" t="n">
-        <v>1910.990343986338</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q27" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R27" t="n">
         <v>1910.990343986338</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>612.3940204581201</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C28" t="n">
-        <v>440.421457337036</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D28" t="n">
-        <v>440.421457337036</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E28" t="n">
-        <v>440.421457337036</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
-        <v>268.5596831115964</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
         <v>102.3027134058285</v>
@@ -6411,25 +6411,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T28" t="n">
-        <v>2108.214973753792</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U28" t="n">
-        <v>1828.030525254097</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V28" t="n">
-        <v>1546.319057862125</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W28" t="n">
-        <v>1271.466654034638</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X28" t="n">
-        <v>1028.902757480444</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y28" t="n">
-        <v>802.5599891701856</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="29">
@@ -6463,28 +6463,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N29" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O29" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6551,19 +6551,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>821.6753975134684</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1185.483835930065</v>
+        <v>568.9456755096874</v>
       </c>
       <c r="C31" t="n">
-        <v>1013.511272808982</v>
+        <v>396.9731123886033</v>
       </c>
       <c r="D31" t="n">
-        <v>850.1944999357522</v>
+        <v>396.9731123886033</v>
       </c>
       <c r="E31" t="n">
-        <v>683.9862940886057</v>
+        <v>396.9731123886033</v>
       </c>
       <c r="F31" t="n">
-        <v>512.1245198631661</v>
+        <v>225.1113381631638</v>
       </c>
       <c r="G31" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
@@ -6645,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S31" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T31" t="n">
-        <v>2112.580693338092</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U31" t="n">
-        <v>1832.396244838396</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V31" t="n">
-        <v>1550.684777446425</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W31" t="n">
-        <v>1275.832373618938</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X31" t="n">
-        <v>1185.483835930065</v>
+        <v>985.454412532011</v>
       </c>
       <c r="Y31" t="n">
-        <v>1185.483835930065</v>
+        <v>759.1116442217531</v>
       </c>
     </row>
     <row r="32">
@@ -6700,25 +6700,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N32" t="n">
-        <v>3727.973228906364</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="O32" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P32" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q32" t="n">
         <v>4997.579335409525</v>
@@ -6788,16 +6788,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M33" t="n">
-        <v>1158.289251381874</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N33" t="n">
-        <v>1158.289251381874</v>
+        <v>1191.617659878699</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>1191.617659878699</v>
       </c>
       <c r="P33" t="n">
-        <v>1910.990343986338</v>
+        <v>1907.815376917197</v>
       </c>
       <c r="Q33" t="n">
         <v>1910.990343986338</v>
@@ -6937,25 +6937,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
-        <v>651.5495334576516</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1581.174581076928</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>2585.460682495986</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="N35" t="n">
-        <v>3561.711740982687</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O35" t="n">
-        <v>4406.8563911335</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P35" t="n">
-        <v>5115.135670291427</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q35" t="n">
         <v>5115.135670291427</v>
@@ -7025,19 +7025,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M36" t="n">
-        <v>1158.289251381874</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N36" t="n">
-        <v>1910.990343986338</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1185.483835930065</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="C37" t="n">
-        <v>1013.511272808982</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="D37" t="n">
-        <v>850.1944999357522</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="E37" t="n">
-        <v>683.9862940886057</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F37" t="n">
-        <v>512.1245198631661</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G37" t="n">
-        <v>345.8675501573982</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H37" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
@@ -7125,22 +7125,22 @@
         <v>2282.715740818957</v>
       </c>
       <c r="T37" t="n">
-        <v>2039.376393044857</v>
+        <v>2246.246884971701</v>
       </c>
       <c r="U37" t="n">
-        <v>2039.376393044857</v>
+        <v>1966.062436472005</v>
       </c>
       <c r="V37" t="n">
-        <v>1757.664925652886</v>
+        <v>1684.350969080034</v>
       </c>
       <c r="W37" t="n">
-        <v>1482.812521825399</v>
+        <v>1409.498565252547</v>
       </c>
       <c r="X37" t="n">
-        <v>1482.812521825399</v>
+        <v>1166.934668698352</v>
       </c>
       <c r="Y37" t="n">
-        <v>1375.649804642131</v>
+        <v>940.5919003880938</v>
       </c>
     </row>
     <row r="38">
@@ -7174,28 +7174,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N38" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O38" t="n">
-        <v>4573.117879057176</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P38" t="n">
-        <v>5115.135670291427</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R38" t="n">
         <v>5115.135670291427</v>
@@ -7262,16 +7262,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M39" t="n">
-        <v>1021.509065974867</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N39" t="n">
-        <v>1021.509065974867</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O39" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P39" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q39" t="n">
         <v>1910.990343986338</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C40" t="n">
-        <v>1013.511272808982</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D40" t="n">
-        <v>850.1944999357522</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E40" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F40" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
@@ -7359,25 +7359,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T40" t="n">
-        <v>2282.715740818957</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U40" t="n">
-        <v>2282.715740818957</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V40" t="n">
-        <v>2119.408873334071</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W40" t="n">
-        <v>1844.556469506584</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X40" t="n">
-        <v>1601.992572952389</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y40" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2538.475729536478</v>
+        <v>2503.578858279949</v>
       </c>
       <c r="C41" t="n">
-        <v>2111.574999549778</v>
+        <v>2076.678128293249</v>
       </c>
       <c r="D41" t="n">
-        <v>1688.282378734778</v>
+        <v>1653.385507478249</v>
       </c>
       <c r="E41" t="n">
-        <v>1262.305438882635</v>
+        <v>1227.408567626107</v>
       </c>
       <c r="F41" t="n">
-        <v>837.1812570720355</v>
+        <v>802.2843858155067</v>
       </c>
       <c r="G41" t="n">
-        <v>432.8421946614841</v>
+        <v>397.9453234049553</v>
       </c>
       <c r="H41" t="n">
-        <v>134.9738161355189</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I41" t="n">
         <v>100.0769448789901</v>
       </c>
       <c r="J41" t="n">
-        <v>100.0769448789901</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K41" t="n">
-        <v>815.5852528544892</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L41" t="n">
-        <v>1745.210300473766</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M41" t="n">
-        <v>1900.530441767981</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="N41" t="n">
-        <v>2876.781500254682</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O41" t="n">
-        <v>3721.926150405494</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P41" t="n">
-        <v>4430.205429563422</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q41" t="n">
-        <v>4886.290909067605</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R41" t="n">
-        <v>5003.847243949507</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S41" t="n">
-        <v>4899.479949822648</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T41" t="n">
-        <v>4678.55437886728</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U41" t="n">
-        <v>4420.199469463692</v>
+        <v>4494.365256022244</v>
       </c>
       <c r="V41" t="n">
-        <v>4062.710054589942</v>
+        <v>4136.875841148494</v>
       </c>
       <c r="W41" t="n">
-        <v>3666.318704890289</v>
+        <v>3740.484491448841</v>
       </c>
       <c r="X41" t="n">
-        <v>3254.598706058036</v>
+        <v>3328.764492616588</v>
       </c>
       <c r="Y41" t="n">
-        <v>2958.324093828008</v>
+        <v>2923.427222571479</v>
       </c>
     </row>
     <row r="42">
@@ -7472,10 +7472,10 @@
         <v>549.6945324279501</v>
       </c>
       <c r="D42" t="n">
-        <v>445.8545739432352</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E42" t="n">
-        <v>341.1526402161724</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F42" t="n">
         <v>247.5068098990765</v>
@@ -7490,28 +7490,28 @@
         <v>100.0769448789901</v>
       </c>
       <c r="J42" t="n">
-        <v>371.7744341585812</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K42" t="n">
-        <v>962.2593607269208</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="L42" t="n">
-        <v>1444.619098596721</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="M42" t="n">
-        <v>1444.619098596721</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="N42" t="n">
-        <v>1444.619098596721</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="O42" t="n">
-        <v>1444.619098596721</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="P42" t="n">
-        <v>1444.619098596721</v>
+        <v>1406.759588485828</v>
       </c>
       <c r="Q42" t="n">
-        <v>1908.7645754595</v>
+        <v>1870.905065348607</v>
       </c>
       <c r="R42" t="n">
         <v>1908.7645754595</v>
@@ -7545,37 +7545,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>939.6932306516574</v>
+        <v>541.3296712223457</v>
       </c>
       <c r="C43" t="n">
-        <v>767.7206675305733</v>
+        <v>369.3571081012617</v>
       </c>
       <c r="D43" t="n">
-        <v>604.403894657344</v>
+        <v>369.3571081012617</v>
       </c>
       <c r="E43" t="n">
-        <v>438.1956888101976</v>
+        <v>369.3571081012617</v>
       </c>
       <c r="F43" t="n">
-        <v>266.333914584758</v>
+        <v>369.3571081012617</v>
       </c>
       <c r="G43" t="n">
-        <v>100.0769448789901</v>
+        <v>203.1001383954938</v>
       </c>
       <c r="H43" t="n">
-        <v>100.0769448789901</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I43" t="n">
         <v>100.0769448789901</v>
       </c>
       <c r="J43" t="n">
-        <v>157.5682731031482</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K43" t="n">
         <v>384.0958743089853</v>
       </c>
       <c r="L43" t="n">
-        <v>738.7851956034061</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M43" t="n">
         <v>1129.970990573657</v>
@@ -7587,34 +7587,34 @@
         <v>1862.890630129456</v>
       </c>
       <c r="P43" t="n">
-        <v>2153.489842051357</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q43" t="n">
-        <v>2280.489972292119</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R43" t="n">
-        <v>2280.489972292119</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S43" t="n">
-        <v>2280.489972292119</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="T43" t="n">
-        <v>2280.489972292119</v>
+        <v>2037.150624518018</v>
       </c>
       <c r="U43" t="n">
-        <v>2000.305523792423</v>
+        <v>1756.966176018322</v>
       </c>
       <c r="V43" t="n">
-        <v>1873.618268055663</v>
+        <v>1475.254708626351</v>
       </c>
       <c r="W43" t="n">
-        <v>1598.765864228176</v>
+        <v>1200.402304798864</v>
       </c>
       <c r="X43" t="n">
-        <v>1356.201967673981</v>
+        <v>957.8384082446693</v>
       </c>
       <c r="Y43" t="n">
-        <v>1129.859199363723</v>
+        <v>731.4956399344113</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2503.578858279949</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C44" t="n">
-        <v>2076.678128293249</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D44" t="n">
-        <v>1653.385507478249</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E44" t="n">
-        <v>1227.408567626107</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F44" t="n">
-        <v>802.2843858155067</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G44" t="n">
-        <v>397.9453234049553</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H44" t="n">
-        <v>100.0769448789901</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I44" t="n">
         <v>100.0769448789901</v>
@@ -7657,43 +7657,43 @@
         <v>2107.813759290661</v>
       </c>
       <c r="M44" t="n">
-        <v>3112.09986070972</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="N44" t="n">
-        <v>4088.350919196421</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O44" t="n">
-        <v>4178.011629909675</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P44" t="n">
-        <v>4886.290909067603</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q44" t="n">
-        <v>4886.290909067603</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R44" t="n">
-        <v>5003.847243949505</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S44" t="n">
-        <v>4899.479949822646</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T44" t="n">
-        <v>4678.554378867279</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U44" t="n">
-        <v>4420.199469463691</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V44" t="n">
-        <v>4136.875841148494</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W44" t="n">
-        <v>3740.484491448841</v>
+        <v>3775.38136270537</v>
       </c>
       <c r="X44" t="n">
-        <v>3328.764492616588</v>
+        <v>3363.661363873117</v>
       </c>
       <c r="Y44" t="n">
-        <v>2923.427222571479</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="45">
@@ -7709,10 +7709,10 @@
         <v>549.6945324279501</v>
       </c>
       <c r="D45" t="n">
-        <v>445.8545739432352</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E45" t="n">
-        <v>341.1526402161724</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F45" t="n">
         <v>247.5068098990765</v>
@@ -7733,19 +7733,19 @@
         <v>100.0769448789901</v>
       </c>
       <c r="L45" t="n">
-        <v>936.8757529618963</v>
+        <v>303.0855804095302</v>
       </c>
       <c r="M45" t="n">
-        <v>936.8757529618963</v>
+        <v>303.0855804095302</v>
       </c>
       <c r="N45" t="n">
-        <v>936.8757529618963</v>
+        <v>303.0855804095302</v>
       </c>
       <c r="O45" t="n">
-        <v>1444.619098596721</v>
+        <v>1192.566858421002</v>
       </c>
       <c r="P45" t="n">
-        <v>1444.619098596721</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q45" t="n">
         <v>1908.7645754595</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>709.9368201910056</v>
+        <v>541.3296712223457</v>
       </c>
       <c r="C46" t="n">
-        <v>537.9642570699216</v>
+        <v>541.3296712223457</v>
       </c>
       <c r="D46" t="n">
-        <v>537.9642570699216</v>
+        <v>541.3296712223457</v>
       </c>
       <c r="E46" t="n">
-        <v>537.9642570699216</v>
+        <v>415.7349875962752</v>
       </c>
       <c r="F46" t="n">
-        <v>366.102482844482</v>
+        <v>243.8732133708357</v>
       </c>
       <c r="G46" t="n">
-        <v>199.8455131387141</v>
+        <v>243.8732133708357</v>
       </c>
       <c r="H46" t="n">
-        <v>199.8455131387141</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I46" t="n">
         <v>100.0769448789901</v>
@@ -7812,7 +7812,7 @@
         <v>384.0958743089853</v>
       </c>
       <c r="L46" t="n">
-        <v>738.7851956034061</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M46" t="n">
         <v>1129.970990573657</v>
@@ -7824,34 +7824,34 @@
         <v>1862.890630129456</v>
       </c>
       <c r="P46" t="n">
-        <v>2153.489842051357</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q46" t="n">
-        <v>2280.489972292119</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R46" t="n">
-        <v>2280.489972292119</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S46" t="n">
-        <v>2280.489972292119</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="T46" t="n">
-        <v>2037.150624518019</v>
+        <v>2037.150624518018</v>
       </c>
       <c r="U46" t="n">
-        <v>1925.573324986982</v>
+        <v>1756.966176018322</v>
       </c>
       <c r="V46" t="n">
-        <v>1643.861857595011</v>
+        <v>1475.254708626351</v>
       </c>
       <c r="W46" t="n">
-        <v>1369.009453767524</v>
+        <v>1200.402304798864</v>
       </c>
       <c r="X46" t="n">
-        <v>1126.445557213329</v>
+        <v>957.8384082446693</v>
       </c>
       <c r="Y46" t="n">
-        <v>900.1027889030713</v>
+        <v>731.4956399344113</v>
       </c>
     </row>
   </sheetData>
@@ -7984,25 +7984,25 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M2" t="n">
         <v>593.6590760150259</v>
       </c>
       <c r="N2" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O2" t="n">
-        <v>300.4142109955939</v>
+        <v>86.13502881159596</v>
       </c>
       <c r="P2" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,10 +8054,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
         <v>22.39923383333334</v>
@@ -8066,22 +8066,22 @@
         <v>578.7428998298237</v>
       </c>
       <c r="M3" t="n">
-        <v>181.3705437721212</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N3" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>372.4370567591071</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8136,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>78.70880469517259</v>
+        <v>78.70880469517321</v>
       </c>
       <c r="K4" t="n">
         <v>249.7804132464869</v>
@@ -8215,16 +8215,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>102.4815180266284</v>
       </c>
       <c r="K5" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
-        <v>572.0660045132436</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M5" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
         <v>37.27962283444602</v>
@@ -8233,10 +8233,10 @@
         <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
         <v>35.03264989479647</v>
@@ -8291,13 +8291,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>459.4832504061476</v>
       </c>
       <c r="L6" t="n">
         <v>578.7428998298237</v>
@@ -8309,16 +8309,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>267.4386025673074</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>78.70880469517259</v>
+        <v>78.70880469517321</v>
       </c>
       <c r="K7" t="n">
         <v>249.7804132464869</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
         <v>35.76460079480934</v>
@@ -8461,19 +8461,19 @@
         <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
-        <v>547.9768619480852</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N8" t="n">
         <v>593.5074359500402</v>
       </c>
       <c r="O8" t="n">
-        <v>37.3909593560241</v>
+        <v>86.13502881159596</v>
       </c>
       <c r="P8" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
         <v>153.7764225027789</v>
@@ -8531,19 +8531,19 @@
         <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>268.0669951958121</v>
       </c>
       <c r="L9" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M9" t="n">
         <v>579.3245936279221</v>
       </c>
       <c r="N9" t="n">
-        <v>548.7966943283913</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
         <v>23.17188972222222</v>
@@ -8689,19 +8689,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
-        <v>1023.391803124043</v>
+        <v>814.0147147172921</v>
       </c>
       <c r="O11" t="n">
         <v>891.0724241548241</v>
@@ -8710,10 +8710,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>480.7551415103962</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
         <v>22.51508671422956</v>
@@ -8780,19 +8780,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>481.0004784218838</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171364</v>
       </c>
       <c r="Q12" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8935,22 +8935,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N14" t="n">
-        <v>1023.391803124043</v>
+        <v>814.0147147172921</v>
       </c>
       <c r="O14" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>106.0949474728494</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9011,22 +9011,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M15" t="n">
-        <v>392.4461590409599</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>177.3532111750609</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
         <v>106.5207073584907</v>
@@ -9172,7 +9172,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N17" t="n">
         <v>1023.391803124043</v>
@@ -9181,13 +9181,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>218.8019602115997</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>35.03264989479647</v>
+        <v>54.56363491934598</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9248,22 +9248,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>22.51508671422956</v>
+        <v>657.2064368952725</v>
       </c>
       <c r="M18" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
         <v>23.67291939414415</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
@@ -9409,19 +9409,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>910.6437127227809</v>
       </c>
       <c r="N20" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O20" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P20" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
         <v>35.03264989479647</v>
@@ -9485,13 +9485,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M21" t="n">
-        <v>1089.749849175</v>
+        <v>1004.802661823039</v>
       </c>
       <c r="N21" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9646,22 +9646,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9719,16 +9719,16 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M24" t="n">
-        <v>1089.749849175</v>
+        <v>325.5054530825915</v>
       </c>
       <c r="N24" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
@@ -9740,7 +9740,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
@@ -9886,19 +9886,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N26" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O26" t="n">
-        <v>891.0724241548241</v>
+        <v>763.5414113871921</v>
       </c>
       <c r="P26" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,31 +9953,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>426.1551116948253</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
@@ -10120,22 +10120,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N29" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O29" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10199,22 +10199,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>23.17188972222222</v>
+        <v>575.0154519389184</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
@@ -10360,16 +10360,16 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N32" t="n">
-        <v>1023.391803124043</v>
+        <v>763.430074865614</v>
       </c>
       <c r="O32" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P32" t="n">
-        <v>466.324307620685</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
         <v>153.7764225027789</v>
@@ -10436,19 +10436,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O33" t="n">
-        <v>783.4760236661258</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>25.95407573255603</v>
       </c>
       <c r="R33" t="n">
         <v>23.67291939414415</v>
@@ -10585,19 +10585,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>590.5593685239236</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>1043.074428213578</v>
       </c>
       <c r="N35" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O35" t="n">
         <v>891.0724241548241</v>
@@ -10606,7 +10606,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
         <v>35.03264989479647</v>
@@ -10673,22 +10673,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>23.17188972222222</v>
+        <v>575.0154519389184</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
@@ -10840,13 +10840,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>585.0680802286672</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>98.60750039798609</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10910,19 +10910,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>951.5880457335786</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>921.6378271075471</v>
+        <v>657.8632399032651</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
         <v>23.67291939414415</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
         <v>758.5002654165255</v>
@@ -11068,10 +11068,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>194.3202945097499</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
-        <v>1023.391803124043</v>
+        <v>814.0147147172921</v>
       </c>
       <c r="O41" t="n">
         <v>891.0724241548241</v>
@@ -11138,13 +11138,13 @@
         <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
         <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
-        <v>509.7471451685727</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
         <v>23.09678051232798</v>
@@ -11156,13 +11156,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q42" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67291939414415</v>
+        <v>61.91484879908644</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,19 +11305,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>1023.391803124043</v>
+        <v>814.0147147172921</v>
       </c>
       <c r="O44" t="n">
-        <v>127.9573338138569</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
         <v>153.7764225027789</v>
@@ -11381,7 +11381,7 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
-        <v>867.7664080100944</v>
+        <v>227.5743145228559</v>
       </c>
       <c r="M45" t="n">
         <v>23.09678051232798</v>
@@ -11390,13 +11390,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>536.0439560200244</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R45" t="n">
         <v>23.67291939414415</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>107.9720312369327</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>4.64841005134096</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23421,13 +23421,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>132.5574960296804</v>
+        <v>105.3075466854515</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>107.9720312369325</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23551,7 +23551,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>107.9720312369321</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23706,16 +23706,16 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W16" t="n">
-        <v>79.23215548632174</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23895,16 +23895,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>114.7184220815447</v>
       </c>
       <c r="H19" t="n">
         <v>142.3583058069271</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>44.5250625300167</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24132,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>164.5944000087102</v>
@@ -24147,7 +24147,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>162.300823137631</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24369,16 +24369,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>153.4739695386591</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
         <v>142.3583058069271</v>
@@ -24414,10 +24414,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24615,7 +24615,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
         <v>142.3583058069271</v>
@@ -24651,13 +24651,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>68.15019490184628</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>71.98949189919239</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>43.01386149894832</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>150.6932052766691</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25314,10 +25314,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,10 +25365,10 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>204.8017870075753</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>117.9882506157206</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,16 +25599,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>71.98949189919247</v>
       </c>
     </row>
     <row r="41">
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25684,7 +25684,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>73.42412869296905</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>107.9720312369302</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>139.1362268027152</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,13 +25839,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>153.4739695386589</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25924,10 +25924,10 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>73.42412869296857</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>107.972031236933</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>40.2073869988652</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>166.9210774789728</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>590927.9832529633</v>
+        <v>590927.9832529632</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>590927.9832529634</v>
+        <v>590927.9832529633</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>590927.9832529634</v>
+        <v>590927.9832529633</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>590927.9832529632</v>
+        <v>590927.9832529633</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>590927.9832529634</v>
+        <v>590927.9832529633</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>581890.59303275</v>
+        <v>581890.5930327497</v>
       </c>
     </row>
     <row r="16">
@@ -26316,28 +26316,28 @@
         <v>451393.0677086515</v>
       </c>
       <c r="C2" t="n">
-        <v>451393.0677086514</v>
+        <v>451393.0677086517</v>
       </c>
       <c r="D2" t="n">
         <v>451393.0677086514</v>
       </c>
       <c r="E2" t="n">
-        <v>428912.767824515</v>
+        <v>428912.7678245152</v>
       </c>
       <c r="F2" t="n">
-        <v>428912.7678245154</v>
+        <v>428912.7678245152</v>
       </c>
       <c r="G2" t="n">
-        <v>435573.5624315218</v>
+        <v>435573.5624315215</v>
       </c>
       <c r="H2" t="n">
+        <v>435573.5624315214</v>
+      </c>
+      <c r="I2" t="n">
+        <v>435573.5624315216</v>
+      </c>
+      <c r="J2" t="n">
         <v>435573.5624315215</v>
-      </c>
-      <c r="I2" t="n">
-        <v>435573.5624315215</v>
-      </c>
-      <c r="J2" t="n">
-        <v>435573.5624315217</v>
       </c>
       <c r="K2" t="n">
         <v>435573.5624315216</v>
@@ -26346,13 +26346,13 @@
         <v>435573.5624315217</v>
       </c>
       <c r="M2" t="n">
-        <v>435573.5624315214</v>
+        <v>435573.5624315216</v>
       </c>
       <c r="N2" t="n">
         <v>435573.5624315214</v>
       </c>
       <c r="O2" t="n">
-        <v>428912.7678245154</v>
+        <v>428912.7678245152</v>
       </c>
       <c r="P2" t="n">
         <v>428912.7678245152</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>207432.287616561</v>
+        <v>207432.2876165609</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>7625.62208348132</v>
+        <v>7625.622083481478</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26429,19 +26429,19 @@
         <v>43077.56596046206</v>
       </c>
       <c r="F4" t="n">
-        <v>43077.56596046206</v>
+        <v>43077.56596046205</v>
       </c>
       <c r="G4" t="n">
-        <v>43748.40045389556</v>
+        <v>43748.40045389557</v>
       </c>
       <c r="H4" t="n">
         <v>43748.40045389557</v>
       </c>
       <c r="I4" t="n">
+        <v>43748.40045389556</v>
+      </c>
+      <c r="J4" t="n">
         <v>43748.40045389557</v>
-      </c>
-      <c r="J4" t="n">
-        <v>43748.40045389556</v>
       </c>
       <c r="K4" t="n">
         <v>43748.40045389556</v>
@@ -26450,16 +26450,16 @@
         <v>43748.40045389556</v>
       </c>
       <c r="M4" t="n">
+        <v>43748.40045389556</v>
+      </c>
+      <c r="N4" t="n">
         <v>43748.40045389557</v>
       </c>
-      <c r="N4" t="n">
-        <v>43748.40045389556</v>
-      </c>
       <c r="O4" t="n">
-        <v>43077.56596046207</v>
+        <v>43077.56596046206</v>
       </c>
       <c r="P4" t="n">
-        <v>43077.56596046207</v>
+        <v>43077.56596046206</v>
       </c>
     </row>
     <row r="5">
@@ -26478,13 +26478,13 @@
         <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>76058.47810803248</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="F5" t="n">
-        <v>76058.47810803248</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842966</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="H5" t="n">
         <v>77750.06218842969</v>
@@ -26508,10 +26508,10 @@
         <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>76058.4781080325</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="P5" t="n">
-        <v>76058.47810803248</v>
+        <v>76058.47810803246</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>32166.34421402952</v>
       </c>
       <c r="C6" t="n">
+        <v>218571.0776287669</v>
+      </c>
+      <c r="D6" t="n">
         <v>218571.0776287666</v>
       </c>
-      <c r="D6" t="n">
-        <v>218571.0776287667</v>
-      </c>
       <c r="E6" t="n">
-        <v>102344.4361394595</v>
+        <v>102271.9190430593</v>
       </c>
       <c r="F6" t="n">
-        <v>309776.7237560208</v>
+        <v>309704.2066596203</v>
       </c>
       <c r="G6" t="n">
-        <v>306449.4777057153</v>
+        <v>306398.4470435305</v>
       </c>
       <c r="H6" t="n">
-        <v>314075.0997891963</v>
+        <v>314024.0691270119</v>
       </c>
       <c r="I6" t="n">
-        <v>314075.0997891962</v>
+        <v>314024.069127012</v>
       </c>
       <c r="J6" t="n">
-        <v>168541.42985438</v>
+        <v>168490.3991921954</v>
       </c>
       <c r="K6" t="n">
-        <v>314075.0997891963</v>
+        <v>314024.069127012</v>
       </c>
       <c r="L6" t="n">
-        <v>314075.0997891964</v>
+        <v>314024.0691270122</v>
       </c>
       <c r="M6" t="n">
-        <v>140944.6085835565</v>
+        <v>140893.5779213725</v>
       </c>
       <c r="N6" t="n">
-        <v>314075.0997891962</v>
+        <v>314024.0691270119</v>
       </c>
       <c r="O6" t="n">
-        <v>309776.7237560208</v>
+        <v>309704.2066596202</v>
       </c>
       <c r="P6" t="n">
-        <v>309776.7237560207</v>
+        <v>309704.2066596202</v>
       </c>
     </row>
   </sheetData>
@@ -26804,7 +26804,7 @@
         <v>1250.961810987376</v>
       </c>
       <c r="G4" t="n">
-        <v>1278.783917572856</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="H4" t="n">
         <v>1278.783917572857</v>
@@ -26828,7 +26828,7 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>1250.961810987377</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="P4" t="n">
         <v>1250.961810987376</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>694.7339978717821</v>
+        <v>694.733997871782</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>27.82210658548012</v>
+        <v>27.8221065854807</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>694.7339978717821</v>
+        <v>694.733997871782</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>694.7339978717821</v>
+        <v>694.733997871782</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>27.82210658548012</v>
+        <v>27.8221065854807</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>290.4897201912249</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>7.743021135053027</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,19 +27435,19 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>85.11443092146934</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>21.43047528078506</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,13 +27587,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27618,25 +27618,25 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>80.8038391566601</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="F5" t="n">
-        <v>400</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>55.08045499971971</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27776,25 +27776,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>85.11443092147027</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27830,16 +27830,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>59.37454630891006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>152.6181964616704</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27915,13 +27915,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>74.65813289307465</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28016,16 +28016,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>157.2563333981139</v>
+        <v>165.7641609568372</v>
       </c>
     </row>
     <row r="11">
@@ -34704,25 +34704,25 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M2" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O2" t="n">
-        <v>263.0232516395698</v>
+        <v>48.74406945557187</v>
       </c>
       <c r="P2" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34774,10 +34774,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -34786,22 +34786,22 @@
         <v>556.2278131155941</v>
       </c>
       <c r="M3" t="n">
-        <v>158.2737632597932</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N3" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>349.6900184701286</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127134</v>
       </c>
       <c r="K4" t="n">
         <v>228.8157587937749</v>
@@ -34935,16 +34935,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>73.06155854104185</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L5" t="n">
-        <v>533.7539620806207</v>
-      </c>
       <c r="M5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -34953,10 +34953,10 @@
         <v>556.2278131155941</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35011,13 +35011,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="L6" t="n">
         <v>556.2278131155941</v>
@@ -35029,16 +35029,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>245.6677613624788</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127134</v>
       </c>
       <c r="K7" t="n">
         <v>228.8157587937749</v>
@@ -35172,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -35181,19 +35181,19 @@
         <v>556.2278131155941</v>
       </c>
       <c r="M8" t="n">
-        <v>510.5455990486534</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N8" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>48.74406945557187</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>118.7437726079824</v>
@@ -35251,19 +35251,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>245.6677613624788</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M9" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="N9" t="n">
-        <v>527.4536661148496</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35409,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>986.1121802895968</v>
+        <v>776.7350918828461</v>
       </c>
       <c r="O11" t="n">
         <v>853.6814647988001</v>
@@ -35430,10 +35430,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>444.6304669057981</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35500,19 +35500,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>459.6574502083421</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>396.8624089123077</v>
       </c>
       <c r="Q12" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35655,22 +35655,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>986.1121802895968</v>
+        <v>776.7350918828461</v>
       </c>
       <c r="O14" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>71.06229757805292</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,22 +35731,22 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M15" t="n">
-        <v>369.3493785286319</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>155.5823699702323</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
         <v>82.84778796434657</v>
@@ -35892,7 +35892,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>986.1121802895968</v>
@@ -35901,13 +35901,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>181.2265984013684</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>19.53098502454951</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,22 +35968,22 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>634.6913501810429</v>
       </c>
       <c r="M18" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
@@ -36129,19 +36129,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>873.2124498233492</v>
       </c>
       <c r="N20" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O20" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36205,13 +36205,13 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M21" t="n">
-        <v>1066.653068662672</v>
+        <v>981.7058813107108</v>
       </c>
       <c r="N21" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36366,22 +36366,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,16 +36439,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M24" t="n">
-        <v>1066.653068662672</v>
+        <v>302.4086725702635</v>
       </c>
       <c r="N24" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36460,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
@@ -36606,19 +36606,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N26" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>853.6814647988001</v>
+        <v>726.1504520311679</v>
       </c>
       <c r="P26" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>404.3842704899966</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
@@ -36840,22 +36840,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O29" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,22 +36919,22 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>551.8435622166962</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
@@ -37080,16 +37080,16 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N32" t="n">
-        <v>986.1121802895968</v>
+        <v>726.1504520311679</v>
       </c>
       <c r="O32" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>428.7489458104537</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
         <v>118.7437726079824</v>
@@ -37156,19 +37156,19 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O33" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>3.207037443577533</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
-        <v>554.7947677291143</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>1005.643165314146</v>
       </c>
       <c r="N35" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>853.6814647988001</v>
@@ -37326,7 +37326,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37393,22 +37393,22 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>551.8435622166962</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
@@ -37560,13 +37560,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>547.4927184184359</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>62.48282579338804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,19 +37630,19 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>898.4659373853249</v>
+        <v>634.6913501810429</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
         <v>722.7356646217162</v>
@@ -37788,10 +37788,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>156.8890316103181</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>986.1121802895968</v>
+        <v>776.7350918828461</v>
       </c>
       <c r="O41" t="n">
         <v>853.6814647988001</v>
@@ -37858,13 +37858,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
-        <v>487.2320584543431</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -37876,13 +37876,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q42" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>38.24192940494229</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38025,19 +38025,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>986.1121802895968</v>
+        <v>776.7350918828461</v>
       </c>
       <c r="O44" t="n">
-        <v>90.56637445783284</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
         <v>118.7437726079824</v>
@@ -38101,7 +38101,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>845.2513212958648</v>
+        <v>205.0592278086263</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38110,13 +38110,13 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>512.8720662978022</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
